--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FCEDE92-E44C-4E7D-B93E-CF0EA9C95405}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F12AF51B-6FC9-4F4F-930B-87D23205E625}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,447 +321,561 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容知日新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣邦微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广立微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷视（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文远知行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.alibaba.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo需要确认是否t投递成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://utpower.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>优特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇虎360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安克创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MjsxNjYwNzI1Njk2MDI2OzcxMTI1OTI5ODU2NDg5MDYyNDI7NzEzMjc1OTQ0NjkyMTYxMTUzMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/deliverSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辉游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rastargame.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银金科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/resume/resume_center.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.cloud.cmbchina.com/index.html#applyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业数金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?code=1&amp;type=3&amp;token=cb5e2e97-151b-422f-8d9d-77d34846bbb6&amp;page=3</t>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网联清算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++服务端开发/测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lizhi2021.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYwNzM2MjYyMTUzOzcwODA2ODUxOTI1NDU2MTU4NzM7MA</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐畅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/cyou-inc/42233#/jobs?page=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://narwal.zhiye.com/Portal/Resume/ResumeItem?stepId=4&amp;jId=620668023&amp;sId=0&amp;r=%2fzpdetail%2f620668023%3fp%3d1%255E2%26PageIndex%3d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mobvista.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/</t>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU62b2ae672f9d24458d72f9cc/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/WgbJtVO_xzEmbxtLoH9Wmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.hundsun.com/form/friendly?fromPage=job&amp;CategoryId=2&amp;submissionId=118293626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元戎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图森未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/tusenweilai/35932?recommendCode=DSHnaKkk#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥比中光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.orbbec.com.cn/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙芯中科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/resume/standard_resume.php?lang=c&amp;resumeid=444007318#Additional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sc.hotjob.cn/wt/TCL/mobweb/v8/security/delivery/listDelivery?brandCode=1&amp;request_locale=zh_CN&amp;positionId=493024&amp;recruitPostType=1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/envisiongroup/43124?recommendCode=NTAMHE5#/job/6375b8f2-8e8c-4678-8b77-6846239a8d27/campus_apply/thanks?jobId=6375b8f2-8e8c-4678-8b77-6846239a8d27&amp;recommendCode=NTAMHE5&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362767549</t>
+  </si>
+  <si>
+    <t>豪威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ovt-omnivision.zhiye.com/zpdetail/510698316?PageIndex=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲库提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.arcsoft.com.cn/job/JobList.html</t>
+  </si>
+  <si>
+    <t>联咏科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=8befc068-2455-4453-960a-1e37048ce2fa&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp%2finc%2f&amp;CtmName=%e8%81%94%e5%92%8f%e7%94%b5%e5%ad%90%e7%a7%91%e6%8a%80&amp;resumeid=044826fd-22dc-401d-92e2-a5df6e3d34c8&amp;jobid=cdf1a959-9d62-4bbd-bccb-05ee74043960,f1fc9dae-a66a-4a96-ac1d-d1ef03934a4f&amp;accountid=214905113&amp;entype=&amp;ismap3=False</t>
+  </si>
+  <si>
+    <t>中创科达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thundersoft.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYxMTM3NjIwNTQ5OzY5ODI1NDkwNzE4OTAyMjA1NTI7MA</t>
+  </si>
+  <si>
+    <t>思必驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aispeech.zhiye.com/zpdetail/350726302</t>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nio.jobs.feishu.cn/referral/campus/position/application?token=MzsxNjU1OTY3MTgwNzI1OzcxMDA2NzA1NzE4MDExOTg1OTQ7MA</t>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://maker.haier.net/client/campus/deliverfirst/id/19/fid/7/rid/183.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一重能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
-  </si>
-  <si>
-    <t>博世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容知日新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌入式开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康威视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格科威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣邦微电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广联达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广立微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷视（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文远知行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.alibaba.com/personal/campus-application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/personal/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/campus/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo需要确认是否t投递成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://utpower.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t>优特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇虎360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安克创新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MjsxNjYwNzI1Njk2MDI2OzcxMTI1OTI5ODU2NDg5MDYyNDI7NzEzMjc1OTQ0NjkyMTYxMTUzMg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.jd.com/#/deliverSuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三七互娱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星辉游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://rastargame.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银金科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/resume/resume_center.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://career.cloud.cmbchina.com/index.html#applyHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业数金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱内推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bilibili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bilibili.com/campus/positions?code=1&amp;type=3&amp;token=cb5e2e97-151b-422f-8d9d-77d34846bbb6&amp;page=3</t>
-  </si>
-  <si>
-    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网联清算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++服务端开发/测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔枝FM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lizhi2021.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYwNzM2MjYyMTUzOzcwODA2ODUxOTI1NDU2MTU4NzM7MA</t>
-  </si>
-  <si>
-    <t>贝壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狐畅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/cyou-inc/42233#/jobs?page=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://narwal.zhiye.com/Portal/Resume/ResumeItem?stepId=4&amp;jId=620668023&amp;sId=0&amp;r=%2fzpdetail%2f620668023%3fp%3d1%255E2%26PageIndex%3d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mobvista.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度小满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/</t>
-  </si>
-  <si>
-    <t>https://wecruit.hotjob.cn/SU62b2ae672f9d24458d72f9cc/pb/account.html#/myDeliver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方数码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/WgbJtVO_xzEmbxtLoH9Wmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒生电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.hundsun.com/form/friendly?fromPage=job&amp;CategoryId=2&amp;submissionId=118293626</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元戎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图森未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/tusenweilai/35932?recommendCode=DSHnaKkk#/candidateHome/applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥比中光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.orbbec.com.cn/personal/deliveryRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙芯中科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/resume/standard_resume.php?lang=c&amp;resumeid=444007318#Additional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sc.hotjob.cn/wt/TCL/mobweb/v8/security/delivery/listDelivery?brandCode=1&amp;request_locale=zh_CN&amp;positionId=493024&amp;recruitPostType=1#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远景科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/envisiongroup/43124?recommendCode=NTAMHE5#/job/6375b8f2-8e8c-4678-8b77-6846239a8d27/campus_apply/thanks?jobId=6375b8f2-8e8c-4678-8b77-6846239a8d27&amp;recommendCode=NTAMHE5&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362767549</t>
-  </si>
-  <si>
-    <t>豪威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ovt-omnivision.zhiye.com/zpdetail/510698316?PageIndex=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲库提前批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虹软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.arcsoft.com.cn/job/JobList.html</t>
-  </si>
-  <si>
-    <t>联咏科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=8befc068-2455-4453-960a-1e37048ce2fa&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp%2finc%2f&amp;CtmName=%e8%81%94%e5%92%8f%e7%94%b5%e5%ad%90%e7%a7%91%e6%8a%80&amp;resumeid=044826fd-22dc-401d-92e2-a5df6e3d34c8&amp;jobid=cdf1a959-9d62-4bbd-bccb-05ee74043960,f1fc9dae-a66a-4a96-ac1d-d1ef03934a4f&amp;accountid=214905113&amp;entype=&amp;ismap3=False</t>
-  </si>
-  <si>
-    <t>中创科达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://thundersoft.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYxMTM3NjIwNTQ5OzY5ODI1NDkwNzE4OTAyMjA1NTI7MA</t>
-  </si>
-  <si>
-    <t>思必驰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aispeech.zhiye.com/zpdetail/350726302</t>
-  </si>
-  <si>
-    <t>趋势科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔚来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nio.jobs.feishu.cn/referral/campus/position/application?token=MzsxNjU1OTY3MTgwNzI1OzcxMDA2NzA1NzE4MDExOTg1OTQ7MA</t>
-  </si>
-  <si>
-    <t>海尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://maker.haier.net/client/campus/deliverfirst/id/19/fid/7/rid/183.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三一重能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.wjx.top/wjx/join/complete.aspx?activityid=micLVv6&amp;joinid=113968600194&amp;sojumpindex=5821&amp;anst=3Z1R3ROoxydPvEWplKSVjGe2mYeDRZ%2bI&amp;comsign=3453DCC45F61F73C2A574C9D622DE1B984876620&amp;s=&amp;ge=1&amp;edu=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aibee.jobs.feishu.cn/834668/?spread=6AHTWEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忆芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富瀚微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fullhan.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩智浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://novastar.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/1018218?type=all&amp;order=recall&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661225898403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/nsfocus/36120?sharePageId=1500977&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;code=011L6j0w3B27VY2khf3w3VwNg03L6j0f&amp;state=3#/job/83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb/campus_apply/thanks?jobId=83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363229221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/1024245?type=all&amp;order=recall&amp;pos=&amp;page=0&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227302343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数禾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hisense.zhiye.com/Portal/Resume/MyResume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱内推https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22 ~ 8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 19.00 - 21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 19.00 ~ 21.00（已延期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26 19.00 - 20.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1122,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>8.1999999999999993</v>
@@ -1252,7 +1366,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1331,7 +1445,7 @@
         <v>8.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1">
         <v>8.1999999999999993</v>
@@ -1451,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1">
         <v>8.2100000000000009</v>
@@ -1510,7 +1624,7 @@
         <v>8.17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,13 +1651,13 @@
       <c r="C30" s="1">
         <v>8.17</v>
       </c>
-      <c r="D30" t="s">
-        <v>74</v>
+      <c r="D30" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
@@ -1552,82 +1666,82 @@
         <v>8.17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
       </c>
       <c r="C32" s="1">
         <v>8.17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="1">
         <v>8.17</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1">
         <v>8.17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1">
         <v>8.17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>8.18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -1636,12 +1750,12 @@
         <v>8.18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -1652,30 +1766,30 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1">
         <v>8.18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>8.18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1683,74 +1797,74 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1">
         <v>8.18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>8.18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>8.18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1">
         <v>8.19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1">
         <v>8.19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -1759,68 +1873,68 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -1829,54 +1943,54 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
         <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
       </c>
       <c r="C53" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -1885,40 +1999,40 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
         <v>131</v>
-      </c>
-      <c r="B57" t="s">
-        <v>132</v>
       </c>
       <c r="C57" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -1927,110 +2041,110 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -2039,229 +2153,437 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
         <v>169</v>
-      </c>
-      <c r="B74" t="s">
-        <v>170</v>
       </c>
       <c r="C74" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="6">
+        <v>8.23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="6"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119">
+        <v>8.31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2329,8 +2651,19 @@
     <hyperlink ref="D74" r:id="rId61" location="/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" display="https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" xr:uid="{444B6118-0077-46C3-A485-6DE328C1F358}"/>
     <hyperlink ref="D79" r:id="rId62" xr:uid="{AD38C1A0-CE1E-4730-BD60-E2D743C53945}"/>
     <hyperlink ref="D81" r:id="rId63" xr:uid="{DF4D36CC-0DBD-417F-BC6A-B1FBC33B9A4D}"/>
+    <hyperlink ref="D30" r:id="rId64" location="/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8" xr:uid="{7CD1C7E4-CEE0-4EE6-A3B5-20B4F0027573}"/>
+    <hyperlink ref="D82" r:id="rId65" xr:uid="{D34F603E-7BC6-4983-BB4B-39A82B0A8260}"/>
+    <hyperlink ref="D83" r:id="rId66" xr:uid="{BC3511D4-2BF6-45D6-9068-73AA5C40C8FC}"/>
+    <hyperlink ref="D84" r:id="rId67" xr:uid="{00A0C3D1-4AF2-492B-AA3C-B1510EEA7F12}"/>
+    <hyperlink ref="D85" r:id="rId68" location="/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" display="https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" xr:uid="{1C6ED219-40CD-4E27-B918-60C9FF33CD05}"/>
+    <hyperlink ref="D86" r:id="rId69" xr:uid="{A942BA73-6034-461F-AE82-ACEB9B4ECB20}"/>
+    <hyperlink ref="D89" r:id="rId70" xr:uid="{183B6ECA-A669-4D84-9CA1-60E5769694F6}"/>
+    <hyperlink ref="D87" r:id="rId71" xr:uid="{F9A89B8B-F647-441E-8662-A375068478A3}"/>
+    <hyperlink ref="D90" r:id="rId72" xr:uid="{DD75A15E-D2BA-42D7-A779-6450E6FB28EA}"/>
+    <hyperlink ref="D91" r:id="rId73" display="https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145" xr:uid="{79D627D5-4D2B-4EC7-AB25-09516BFF4C83}"/>
+    <hyperlink ref="D92" r:id="rId74" xr:uid="{73636894-6593-44FD-AFDB-9A3F7730CBD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F12AF51B-6FC9-4F4F-930B-87D23205E625}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C076E5E-A535-4108-968C-2C2ACF7C0A7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,532 +349,633 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣邦微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广立微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷视（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文远知行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.alibaba.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo需要确认是否t投递成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://utpower.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>优特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇虎360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安克创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MjsxNjYwNzI1Njk2MDI2OzcxMTI1OTI5ODU2NDg5MDYyNDI7NzEzMjc1OTQ0NjkyMTYxMTUzMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/deliverSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辉游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rastargame.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银金科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/resume/resume_center.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.cloud.cmbchina.com/index.html#applyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业数金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?code=1&amp;type=3&amp;token=cb5e2e97-151b-422f-8d9d-77d34846bbb6&amp;page=3</t>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网联清算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++服务端开发/测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lizhi2021.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYwNzM2MjYyMTUzOzcwODA2ODUxOTI1NDU2MTU4NzM7MA</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐畅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/cyou-inc/42233#/jobs?page=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://narwal.zhiye.com/Portal/Resume/ResumeItem?stepId=4&amp;jId=620668023&amp;sId=0&amp;r=%2fzpdetail%2f620668023%3fp%3d1%255E2%26PageIndex%3d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mobvista.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/</t>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU62b2ae672f9d24458d72f9cc/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/WgbJtVO_xzEmbxtLoH9Wmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.hundsun.com/form/friendly?fromPage=job&amp;CategoryId=2&amp;submissionId=118293626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元戎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图森未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/tusenweilai/35932?recommendCode=DSHnaKkk#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥比中光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.orbbec.com.cn/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙芯中科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/resume/standard_resume.php?lang=c&amp;resumeid=444007318#Additional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sc.hotjob.cn/wt/TCL/mobweb/v8/security/delivery/listDelivery?brandCode=1&amp;request_locale=zh_CN&amp;positionId=493024&amp;recruitPostType=1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/envisiongroup/43124?recommendCode=NTAMHE5#/job/6375b8f2-8e8c-4678-8b77-6846239a8d27/campus_apply/thanks?jobId=6375b8f2-8e8c-4678-8b77-6846239a8d27&amp;recommendCode=NTAMHE5&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362767549</t>
+  </si>
+  <si>
+    <t>豪威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ovt-omnivision.zhiye.com/zpdetail/510698316?PageIndex=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲库提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.arcsoft.com.cn/job/JobList.html</t>
+  </si>
+  <si>
+    <t>联咏科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=8befc068-2455-4453-960a-1e37048ce2fa&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp%2finc%2f&amp;CtmName=%e8%81%94%e5%92%8f%e7%94%b5%e5%ad%90%e7%a7%91%e6%8a%80&amp;resumeid=044826fd-22dc-401d-92e2-a5df6e3d34c8&amp;jobid=cdf1a959-9d62-4bbd-bccb-05ee74043960,f1fc9dae-a66a-4a96-ac1d-d1ef03934a4f&amp;accountid=214905113&amp;entype=&amp;ismap3=False</t>
+  </si>
+  <si>
+    <t>中创科达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thundersoft.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYxMTM3NjIwNTQ5OzY5ODI1NDkwNzE4OTAyMjA1NTI7MA</t>
+  </si>
+  <si>
+    <t>思必驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aispeech.zhiye.com/zpdetail/350726302</t>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nio.jobs.feishu.cn/referral/campus/position/application?token=MzsxNjU1OTY3MTgwNzI1OzcxMDA2NzA1NzE4MDExOTg1OTQ7MA</t>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://maker.haier.net/client/campus/deliverfirst/id/19/fid/7/rid/183.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一重能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wjx.top/wjx/join/complete.aspx?activityid=micLVv6&amp;joinid=113968600194&amp;sojumpindex=5821&amp;anst=3Z1R3ROoxydPvEWplKSVjGe2mYeDRZ%2bI&amp;comsign=3453DCC45F61F73C2A574C9D622DE1B984876620&amp;s=&amp;ge=1&amp;edu=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.xiaohongshu.com/campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aibee.jobs.feishu.cn/834668/?spread=6AHTWEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忆芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富瀚微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fullhan.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩智浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://novastar.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/1018218?type=all&amp;order=recall&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661225898403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/nsfocus/36120?sharePageId=1500977&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;code=011L6j0w3B27VY2khf3w3VwNg03L6j0f&amp;state=3#/job/83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb/campus_apply/thanks?jobId=83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363229221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/1024245?type=all&amp;order=recall&amp;pos=&amp;page=0&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227302343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数禾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hisense.zhiye.com/Portal/Resume/MyResume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱内推https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22 ~ 8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 19.00 - 21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 19.00 ~ 21.00（已延期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26 19.00 - 20.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期有效（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评中8.24~9.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPLINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.tp-link.com.cn/deliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格科威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣邦微电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广联达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广立微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷视（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文远知行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.alibaba.com/personal/campus-application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/personal/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/campus/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo需要确认是否t投递成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://utpower.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t>优特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇虎360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安克创新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MjsxNjYwNzI1Njk2MDI2OzcxMTI1OTI5ODU2NDg5MDYyNDI7NzEzMjc1OTQ0NjkyMTYxMTUzMg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.jd.com/#/deliverSuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三七互娱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星辉游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://rastargame.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银金科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/resume/resume_center.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://career.cloud.cmbchina.com/index.html#applyHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业数金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱内推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bilibili</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bilibili.com/campus/positions?code=1&amp;type=3&amp;token=cb5e2e97-151b-422f-8d9d-77d34846bbb6&amp;page=3</t>
-  </si>
-  <si>
-    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网联清算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++服务端开发/测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔枝FM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lizhi2021.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYwNzM2MjYyMTUzOzcwODA2ODUxOTI1NDU2MTU4NzM7MA</t>
-  </si>
-  <si>
-    <t>贝壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狐畅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/cyou-inc/42233#/jobs?page=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://narwal.zhiye.com/Portal/Resume/ResumeItem?stepId=4&amp;jId=620668023&amp;sId=0&amp;r=%2fzpdetail%2f620668023%3fp%3d1%255E2%26PageIndex%3d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mobvista.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天翼云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度小满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/</t>
-  </si>
-  <si>
-    <t>https://wecruit.hotjob.cn/SU62b2ae672f9d24458d72f9cc/pb/account.html#/myDeliver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方数码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/WgbJtVO_xzEmbxtLoH9Wmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒生电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.hundsun.com/form/friendly?fromPage=job&amp;CategoryId=2&amp;submissionId=118293626</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元戎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图森未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/tusenweilai/35932?recommendCode=DSHnaKkk#/candidateHome/applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥比中光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.orbbec.com.cn/personal/deliveryRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙芯中科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/resume/standard_resume.php?lang=c&amp;resumeid=444007318#Additional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sc.hotjob.cn/wt/TCL/mobweb/v8/security/delivery/listDelivery?brandCode=1&amp;request_locale=zh_CN&amp;positionId=493024&amp;recruitPostType=1#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远景科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/envisiongroup/43124?recommendCode=NTAMHE5#/job/6375b8f2-8e8c-4678-8b77-6846239a8d27/campus_apply/thanks?jobId=6375b8f2-8e8c-4678-8b77-6846239a8d27&amp;recommendCode=NTAMHE5&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362767549</t>
-  </si>
-  <si>
-    <t>豪威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ovt-omnivision.zhiye.com/zpdetail/510698316?PageIndex=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲库提前批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虹软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.arcsoft.com.cn/job/JobList.html</t>
-  </si>
-  <si>
-    <t>联咏科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xyz.51job.com/external/MyResume/ResumeEnd.aspx?ctmid=8befc068-2455-4453-960a-1e37048ce2fa&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp%2finc%2f&amp;CtmName=%e8%81%94%e5%92%8f%e7%94%b5%e5%ad%90%e7%a7%91%e6%8a%80&amp;resumeid=044826fd-22dc-401d-92e2-a5df6e3d34c8&amp;jobid=cdf1a959-9d62-4bbd-bccb-05ee74043960,f1fc9dae-a66a-4a96-ac1d-d1ef03934a4f&amp;accountid=214905113&amp;entype=&amp;ismap3=False</t>
-  </si>
-  <si>
-    <t>中创科达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://thundersoft.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYxMTM3NjIwNTQ5OzY5ODI1NDkwNzE4OTAyMjA1NTI7MA</t>
-  </si>
-  <si>
-    <t>思必驰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aispeech.zhiye.com/zpdetail/350726302</t>
-  </si>
-  <si>
-    <t>趋势科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔚来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nio.jobs.feishu.cn/referral/campus/position/application?token=MzsxNjU1OTY3MTgwNzI1OzcxMDA2NzA1NzE4MDExOTg1OTQ7MA</t>
-  </si>
-  <si>
-    <t>海尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://maker.haier.net/client/campus/deliverfirst/id/19/fid/7/rid/183.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三一重能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.wjx.top/wjx/join/complete.aspx?activityid=micLVv6&amp;joinid=113968600194&amp;sojumpindex=5821&amp;anst=3Z1R3ROoxydPvEWplKSVjGe2mYeDRZ%2bI&amp;comsign=3453DCC45F61F73C2A574C9D622DE1B984876620&amp;s=&amp;ge=1&amp;edu=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.xiaohongshu.com/campus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aibee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aibee.jobs.feishu.cn/834668/?spread=6AHTWEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忆芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富瀚微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://fullhan.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩智浦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺瓦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://novastar.zhiye.com/campus/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/discuss/1018218?type=all&amp;order=recall&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661225898403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/nsfocus/36120?sharePageId=1500977&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;code=011L6j0w3B27VY2khf3w3VwNg03L6j0f&amp;state=3#/job/83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb/campus_apply/thanks?jobId=83f22bc4-b6b4-4f7c-8a93-1d8a13b222eb&amp;recommendCode=NTAKhQC&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363229221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/discuss/1024245?type=all&amp;order=recall&amp;pos=&amp;page=0&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227302343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数禾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海信提前批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hisense.zhiye.com/Portal/Resume/MyResume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱内推https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.22 ~ 8.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.25 19.00 - 21.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.25 19.00 ~ 21.00（已延期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26 19.00 - 20.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯原股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xyz.51job.com/External/MyResume/ResumeEnd.aspx?ctmid=a291a7a2-d53a-4174-b1cd-d3d3aec3a888&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp_2%2finc%2f&amp;CtmName=%e8%8a%af%e5%8e%9f%e8%82%a1%e4%bb%bd&amp;resumeid=acc399a0-1d77-4f3d-8ee8-3fe83227e08e&amp;jobid=bdc0035d-b3fb-4f3d-b127-f5810c715f01&amp;accountid=214905113&amp;entype=&amp;ismap3=False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒武纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://asiainfo-sec.jobs.feishu.cn/referral/campus/position?token=MzsxNjYwOTgwMTQ4OTgzOzY5NjA1ODg3NjI1ODE5Mjc0MzE7MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/yokagames/41940#/job/211f9885-3107-4f08-adde-90cbcedb9bb5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/nd/2022/post.html?jobid=02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/papegames/78050?sharePageId=1633270&amp;recommendCode=NTAJfhk&amp;codeType=1#/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六方云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoughtworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意需要准备英文自我介绍https://join.thoughtworks.cn/recruitment/job/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24~8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.sf-express.com/#/personalCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -954,6 +1055,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>8.1999999999999993</v>
@@ -1366,7 +1470,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1445,7 +1549,7 @@
         <v>8.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,7 +1669,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1">
         <v>8.2100000000000009</v>
@@ -1624,7 +1728,7 @@
         <v>8.17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1652,7 +1756,7 @@
         <v>8.17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,13 +1797,13 @@
       <c r="C33" s="1">
         <v>8.17</v>
       </c>
-      <c r="D33" t="s">
-        <v>81</v>
+      <c r="D33" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
@@ -1708,12 +1812,12 @@
         <v>8.17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
@@ -1722,26 +1826,26 @@
         <v>8.17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
       </c>
       <c r="C36" s="1">
         <v>8.18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -1750,12 +1854,12 @@
         <v>8.18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -1766,30 +1870,30 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>8.18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>8.18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1797,74 +1901,74 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>8.18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>8.18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>8.18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1">
         <v>8.19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>8.19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -1873,68 +1977,68 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -1943,40 +2047,40 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
         <v>120</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
       </c>
       <c r="C53" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>80</v>
@@ -1985,12 +2089,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -1999,40 +2103,40 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
         <v>130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>131</v>
       </c>
       <c r="C57" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -2041,12 +2145,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
@@ -2055,12 +2159,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
@@ -2069,12 +2173,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
@@ -2083,12 +2187,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
@@ -2097,12 +2201,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
         <v>80</v>
@@ -2111,12 +2215,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
@@ -2125,12 +2229,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
@@ -2139,12 +2243,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -2153,12 +2257,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
         <v>80</v>
@@ -2167,12 +2271,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
         <v>80</v>
@@ -2181,12 +2285,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
         <v>80</v>
@@ -2195,12 +2299,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
@@ -2209,12 +2313,12 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
@@ -2223,26 +2327,26 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -2251,152 +2355,152 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
         <v>168</v>
-      </c>
-      <c r="B74" t="s">
-        <v>169</v>
       </c>
       <c r="C74" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" s="6">
         <v>8.23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="6">
         <v>8.23</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="6">
         <v>8.23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
         <v>57</v>
@@ -2405,185 +2509,393 @@
         <v>8.23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="6">
         <v>8.23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="6">
         <v>8.23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="6">
         <v>8.23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="6">
         <v>8.23</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="6">
         <v>8.23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="6">
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6">
         <v>8.23</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" s="6">
         <v>8.23</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="6"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>211</v>
-      </c>
       <c r="B116" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>52</v>
       </c>
       <c r="B118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>8.31</v>
       </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2662,8 +2974,16 @@
     <hyperlink ref="D90" r:id="rId72" xr:uid="{DD75A15E-D2BA-42D7-A779-6450E6FB28EA}"/>
     <hyperlink ref="D91" r:id="rId73" display="https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145" xr:uid="{79D627D5-4D2B-4EC7-AB25-09516BFF4C83}"/>
     <hyperlink ref="D92" r:id="rId74" xr:uid="{73636894-6593-44FD-AFDB-9A3F7730CBD5}"/>
+    <hyperlink ref="D93" r:id="rId75" xr:uid="{1D856473-BC2E-42DB-AB61-8B986EE1E1E7}"/>
+    <hyperlink ref="D33" r:id="rId76" xr:uid="{EECD55F6-BE8A-46E3-8A3C-68191B3D3107}"/>
+    <hyperlink ref="D94" r:id="rId77" display="https://xyz.51job.com/External/MyResume/ResumeEnd.aspx?ctmid=a291a7a2-d53a-4174-b1cd-d3d3aec3a888&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp_2%2finc%2f&amp;CtmName=%e8%8a%af%e5%8e%9f%e8%82%a1%e4%bb%bd&amp;resumeid=acc399a0-1d77-4f3d-8ee8-3fe83227e08e&amp;jobid=bdc0035d-b3fb-4f3d-b127-f5810c715f01&amp;accountid=214905113&amp;entype=&amp;ismap3=False" xr:uid="{695E7167-75AA-48F9-BD79-743955788282}"/>
+    <hyperlink ref="D96" r:id="rId78" xr:uid="{70F37066-20AE-441D-823D-A3566D443007}"/>
+    <hyperlink ref="D97" r:id="rId79" location="/job/211f9885-3107-4f08-adde-90cbcedb9bb5" xr:uid="{49EFBA7F-4C4F-4520-999E-0ED36823AEFB}"/>
+    <hyperlink ref="D98" r:id="rId80" xr:uid="{A4C5753A-4D7C-436A-9703-7D969652A59C}"/>
+    <hyperlink ref="D99" r:id="rId81" location="/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" display="https://app.mokahr.com/recommendation-apply/papegames/78050?sharePageId=1633270&amp;recommendCode=NTAJfhk&amp;codeType=1#/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" xr:uid="{9278C9C0-C7D7-403C-8A85-0292664200EE}"/>
+    <hyperlink ref="D102" r:id="rId82" location="/personalCenter" xr:uid="{9625FEA2-FBB6-48A4-A587-23E6F47E6C87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C076E5E-A535-4108-968C-2C2ACF7C0A7B}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E1B6AF-7CF7-45B2-A121-39C3A894ED00}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="1692" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,42 +851,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.22 ~ 8.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>远景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.25 19.00 - 21.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.25 19.00 ~ 21.00（已延期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26 19.00 - 20.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长期有效（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评中8.24~9.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TPLINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,11 +943,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺丰测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24h内</t>
+    <t>山石科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬恒润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服正式批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中新赛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已延期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 ~ 9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26     19:00 - 20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5       19:00 - 20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27     19.30-22.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27     16.00-18.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26~8.27测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 18:00 ~ 8.26 20:00测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.28 10:00   需要8.27 13.00参加空宣并报名登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.28 19:00 -- 21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1057,6 +1089,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1340,20 +1375,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B124" sqref="A124:B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1367,13 +1403,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1454,7 +1490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -1482,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1496,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1608,7 +1644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4399</v>
       </c>
@@ -1622,7 +1658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -1636,7 +1672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -1689,7 +1725,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1703,7 +1739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
@@ -1717,7 +1753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -1731,7 +1767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -1759,7 +1795,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -1773,7 +1809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
@@ -1798,10 +1834,10 @@
         <v>8.17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -1815,7 +1851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -1829,7 +1865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -1843,7 +1879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
@@ -1857,7 +1893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>90</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -1882,7 +1918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
@@ -1896,7 +1932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
@@ -1910,7 +1946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
@@ -1924,7 +1960,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -1938,7 +1974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>101</v>
       </c>
@@ -1952,7 +1988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
@@ -1966,7 +2002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
@@ -1980,7 +2016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>107</v>
       </c>
@@ -1994,7 +2030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>109</v>
       </c>
@@ -2008,7 +2044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>113</v>
       </c>
@@ -2036,7 +2072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>115</v>
       </c>
@@ -2050,7 +2086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -2064,7 +2100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -2078,7 +2114,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>122</v>
       </c>
@@ -2092,7 +2128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>124</v>
       </c>
@@ -2106,7 +2142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>126</v>
       </c>
@@ -2120,7 +2156,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>129</v>
       </c>
@@ -2134,7 +2170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
@@ -2162,7 +2198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>136</v>
       </c>
@@ -2176,7 +2212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
@@ -2190,7 +2226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>140</v>
       </c>
@@ -2204,7 +2240,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>142</v>
       </c>
@@ -2218,7 +2254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>145</v>
       </c>
@@ -2246,7 +2282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>148</v>
       </c>
@@ -2260,7 +2296,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -2274,7 +2310,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
@@ -2288,7 +2324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>157</v>
       </c>
@@ -2302,7 +2338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>159</v>
       </c>
@@ -2316,7 +2352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>161</v>
       </c>
@@ -2330,7 +2366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>163</v>
       </c>
@@ -2344,7 +2380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>165</v>
       </c>
@@ -2358,7 +2394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>167</v>
       </c>
@@ -2372,7 +2408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>170</v>
       </c>
@@ -2386,7 +2422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>172</v>
       </c>
@@ -2400,7 +2436,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>174</v>
       </c>
@@ -2414,7 +2450,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>176</v>
       </c>
@@ -2428,7 +2464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>178</v>
       </c>
@@ -2442,7 +2478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>180</v>
       </c>
@@ -2456,7 +2492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>182</v>
       </c>
@@ -2470,7 +2506,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>184</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>186</v>
       </c>
@@ -2498,7 +2534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>189</v>
       </c>
@@ -2512,7 +2548,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>191</v>
       </c>
@@ -2526,7 +2562,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>193</v>
       </c>
@@ -2540,7 +2576,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -2554,7 +2590,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>197</v>
       </c>
@@ -2582,7 +2618,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>201</v>
       </c>
@@ -2596,7 +2632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2610,7 +2646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>204</v>
       </c>
@@ -2624,9 +2660,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
         <v>168</v>
@@ -2635,12 +2671,12 @@
         <v>8.24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
         <v>168</v>
@@ -2649,12 +2685,12 @@
         <v>8.24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B95" t="s">
         <v>91</v>
@@ -2663,12 +2699,12 @@
         <v>8.24</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
         <v>57</v>
@@ -2677,12 +2713,12 @@
         <v>8.24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -2691,12 +2727,12 @@
         <v>8.24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -2705,12 +2741,12 @@
         <v>8.24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -2719,12 +2755,12 @@
         <v>8.24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
         <v>57</v>
@@ -2733,12 +2769,12 @@
         <v>8.24</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s">
         <v>46</v>
@@ -2747,12 +2783,12 @@
         <v>8.24</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
@@ -2761,141 +2797,178 @@
         <v>8.24</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="6">
+        <v>8.24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="1">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" s="7">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>124</v>
       </c>
-      <c r="B114" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" s="1">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>216</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>239</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="7"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="7"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="7"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="7"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="7"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="7"/>
+      <c r="B136" s="8">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E1B6AF-7CF7-45B2-A121-39C3A894ED00}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A11421-DEBB-4E77-8E13-E946891C05E9}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="1692" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="275">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中新塞克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,18 +835,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱内推https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长期有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>远景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,10 +919,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.24~8.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺丰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深信服正式批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面试安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.1 ~ 9.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.26     19:00 - 20:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,31 +959,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.27     19.30-22.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.27     16.00-18.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26~8.27测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交银金融</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.25 18:00 ~ 8.26 20:00测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.28 10:00   需要8.27 13.00参加空宣并报名登记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8.28 19:00 -- 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星环科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评8.25 18:00 ~ 8.26 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/job/48b56547-e167-441b-86f1-511f6da5aff9/campus_apply/thanks?jobId=48b56547-e167-441b-86f1-511f6da5aff9&amp;recommendCode=NTAHiTm&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAHiTm&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364138005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中望软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/zwcad/28356#/job/19327482-ee67-491b-9ac3-e25d2437ef8c/campus_apply/thanks?jobId=19327482-ee67-491b-9ac3-e25d2437ef8c&amp;recommendCode=NTAMjuS&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMjuS&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364143228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太初科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/garena/38200?recommendCode=DSbBnxVY#/job/acd6d420-0eaf-48e3-89b4-1b6096fc0177/campus_apply/thanks?jobId=acd6d420-0eaf-48e3-89b4-1b6096fc0177&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSbBnxVY&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364152818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商米科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/sunmi/4414?recommendCode=DSERrb96#/job/0446246c-27ad-4ee5-a167-30716a0e97db/campus_apply/thanks?jobId=0446246c-27ad-4ee5-a167-30716a0e97db&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSERrb96&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364149162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云和恩墨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/enmotech/47098#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位不合适，后端为java岗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 14:00 - 17:00 2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 19:00 -21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发，看截屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inspur.hcmcloud.cn/recruit#/my_resume?to_apply_id=34872&amp;activity_id=2433&amp;detail_path=activeDelivery&amp;job_category=%E6%8A%80%E6%9C%AF%E7%B1%BB</t>
+  </si>
+  <si>
+    <t>同程旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mhr.ly.com/recruit/portal/#/schoolDetail?id=f9b0e66795e048b598aa2a77509d9cd7&amp;type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评+笔试，长期有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31 18:30 - 20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试长期有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 ~ 9.10发笔试通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24~8.30考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>周五晚上猿辅导 19:00-20;30      ,周六 下午15:00-17:00考360，周六晚上考京东 19:00-21:00, 互娱和美团放弃。周六下午13:00需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参加空宣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并报名等级芯原笔试， 周日上午10:00-11:30考芯原， 周日晚上19：00-21：00考文远知行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 周一 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30 周二 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 周四 9:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1177,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1072,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1091,8 +1226,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1375,21 +1511,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B124" sqref="A124:B124"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="59.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,166 +1539,174 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
-        <v>7.31</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>8.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>8.1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>8.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>152</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>8.1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>8.1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>8.1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>8.1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1571,68 +1715,68 @@
         <v>8.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>8.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
         <v>8.15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>4399</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1641,40 +1785,40 @@
         <v>8.15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4399</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1">
         <v>8.15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
         <v>8.15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -1683,205 +1827,205 @@
         <v>8.15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
-        <v>8.15</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
         <v>8.17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>8.17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1">
         <v>8.17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <v>8.17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
         <v>8.17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1">
         <v>8.17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
         <v>8.17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
       </c>
       <c r="C33" s="1">
         <v>8.17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1">
         <v>8.17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1">
-        <v>8.17</v>
+        <v>8.18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1">
         <v>8.18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -1889,629 +2033,629 @@
       <c r="C37" s="1">
         <v>8.18</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
       </c>
       <c r="C38" s="1">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>8.18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1">
         <v>8.18</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>8.18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1">
         <v>8.18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1">
-        <v>8.18</v>
+        <v>8.19</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1">
         <v>8.19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1">
-        <v>8.19</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="6">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C46" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C51" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C52" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C53" s="6">
-        <v>8.1999999999999993</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C54" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C55" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C56" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>129</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C57" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="D57" t="s">
         <v>132</v>
       </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C58" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C65" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C66" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="6">
         <v>8.2100000000000009</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C71" s="6">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C72" s="6">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C73" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C74" s="6">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C75" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="6">
         <v>8.2200000000000006</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C78" s="6">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="6">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C80" s="6">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="D80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.23</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" s="6">
         <v>8.23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C82" s="6">
         <v>8.23</v>
@@ -2520,152 +2664,152 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C83" s="6">
         <v>8.23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C84" s="6">
         <v>8.23</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" s="6">
         <v>8.23</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C86" s="6">
         <v>8.23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="6">
         <v>8.23</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C88" s="6">
         <v>8.23</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C89" s="6">
         <v>8.23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C90" s="6">
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C91" s="6">
         <v>8.23</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="6">
-        <v>8.23</v>
+        <v>8.24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="6">
         <v>8.24</v>
@@ -2674,65 +2818,65 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C94" s="6">
         <v>8.24</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C95" s="6">
         <v>8.24</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C96" s="6">
         <v>8.24</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C97" s="6">
         <v>8.24</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -2741,12 +2885,12 @@
         <v>8.24</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -2754,309 +2898,498 @@
       <c r="C99" s="6">
         <v>8.24</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C100" s="6">
         <v>8.24</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C101" s="6">
         <v>8.24</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C102" s="6">
         <v>8.24</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B110" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>360</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>230</v>
+      </c>
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="6">
-        <v>8.24</v>
-      </c>
-      <c r="D103" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>209</v>
-      </c>
-      <c r="B114" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>238</v>
-      </c>
-      <c r="B115" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" s="1">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>222</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="B151" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>115</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="7"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" s="7">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>124</v>
-      </c>
-      <c r="B136" s="8">
-        <v>8.3000000000000007</v>
+      <c r="B153" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>273</v>
+      </c>
+      <c r="C154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>108</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A124:B128"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
-    <hyperlink ref="D16" r:id="rId2" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
-    <hyperlink ref="D19" r:id="rId4" display="https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT" xr:uid="{34C9BD72-C08B-496B-81E5-666679A118BE}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{D2B4C923-D608-4FA0-A8EF-5F6E73226A07}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{F3FB61E7-83E4-44C0-8BB4-FF175812DA35}"/>
-    <hyperlink ref="D21" r:id="rId7" location="/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" display="https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" xr:uid="{25DEFAD3-BE4D-4B8D-887D-4D8ACD05D1FB}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
-    <hyperlink ref="D23" r:id="rId9" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
-    <hyperlink ref="D24" r:id="rId10" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{D8908D8D-339B-4A44-9EE0-2AD5C58E6FC0}"/>
-    <hyperlink ref="D27" r:id="rId12" location="/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" display="https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" xr:uid="{D69AE79B-E8F5-4619-B3FC-A2D3930EAC09}"/>
-    <hyperlink ref="D29" r:id="rId13" xr:uid="{7B61006C-8271-40B8-A940-6232EE997636}"/>
-    <hyperlink ref="D31" r:id="rId14" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
-    <hyperlink ref="D32" r:id="rId15" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
-    <hyperlink ref="D34" r:id="rId16" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
-    <hyperlink ref="D35" r:id="rId17" xr:uid="{126AEC9E-535F-4EAC-A74E-B6B4CEEEBC37}"/>
-    <hyperlink ref="D36" r:id="rId18" xr:uid="{8702946E-771C-402D-B076-F638EAC369DC}"/>
-    <hyperlink ref="D37" r:id="rId19" location="/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" display="https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" xr:uid="{5B93FF04-FDA7-4BDD-9F64-D0462616FA48}"/>
-    <hyperlink ref="D41" r:id="rId20" xr:uid="{DEA94A4D-D6EC-4728-B3BE-300EBDA2C896}"/>
-    <hyperlink ref="D40" r:id="rId21" location="/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" display="https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" xr:uid="{A64BDD8B-AD8C-4E23-B78D-7544BD930BC6}"/>
-    <hyperlink ref="D42" r:id="rId22" xr:uid="{4C3F93D9-1E21-47DC-AEAA-272234CAA0E1}"/>
-    <hyperlink ref="D43" r:id="rId23" xr:uid="{F3A7AE1B-F993-40E5-A53C-503DD2077C4B}"/>
-    <hyperlink ref="D13" r:id="rId24" location="/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" display="https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" xr:uid="{D18F981C-45A9-440A-A74B-06C45C1D2870}"/>
-    <hyperlink ref="D11" r:id="rId25" location="/full" xr:uid="{5B70AE1A-9D1A-49C2-A5A4-B6B74B3F705E}"/>
-    <hyperlink ref="D12" r:id="rId26" location="/candidateHome/applications" xr:uid="{378FA5D6-1950-416C-A9C4-A5EF505C775E}"/>
-    <hyperlink ref="D10" r:id="rId27" location="/job/d38609fe-1604-4ad1-923b-7b9627df98d1" xr:uid="{DC1064D8-B412-4DC9-8FE1-3BDFEB00C2D7}"/>
-    <hyperlink ref="D9" r:id="rId28" xr:uid="{2D41AE62-10F1-4D4B-9A25-6B060B87EEF2}"/>
-    <hyperlink ref="D8" r:id="rId29" xr:uid="{392FFA28-798E-4326-9E68-722BEAD822EE}"/>
-    <hyperlink ref="D7" r:id="rId30" location="/candidateHome/applications" xr:uid="{9B646295-FD59-4976-A8DE-BA81C116058B}"/>
-    <hyperlink ref="D6" r:id="rId31" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
-    <hyperlink ref="D5" r:id="rId32" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
-    <hyperlink ref="D4" r:id="rId33" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
-    <hyperlink ref="D44" r:id="rId34" xr:uid="{63092609-4A08-4927-9624-AB905BEB5187}"/>
-    <hyperlink ref="D45" r:id="rId35" xr:uid="{A284D812-A9FE-4F8C-A16C-54EC02760302}"/>
-    <hyperlink ref="D15" r:id="rId36" xr:uid="{5F295242-999E-40E5-B3D0-FC63A75529DB}"/>
-    <hyperlink ref="D46" r:id="rId37" location="/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" display="https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" xr:uid="{F924C742-A6C7-4A23-8AD5-5F76AC75D1D4}"/>
-    <hyperlink ref="D47" r:id="rId38" location="/viewDynamic?t=t" display="https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t" xr:uid="{C6404F55-FDF4-44D3-A49B-2D70C90DFF8B}"/>
-    <hyperlink ref="D49" r:id="rId39" xr:uid="{F22E1D41-671B-475E-B515-367AEDE5AE39}"/>
-    <hyperlink ref="D50" r:id="rId40" location="/deliverSuccess" xr:uid="{19E77E4D-2BEE-4F94-A068-01EE640F1C23}"/>
-    <hyperlink ref="D51" r:id="rId41" location="/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" display="https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" xr:uid="{40DBFE18-2A3E-4935-9BCB-58314CEA506D}"/>
-    <hyperlink ref="D52" r:id="rId42" xr:uid="{44DA8F16-2596-4178-A3CB-4D058191F2EC}"/>
-    <hyperlink ref="D53" r:id="rId43" xr:uid="{D5D3FB8A-DD23-43A7-B831-9F526F2056BB}"/>
-    <hyperlink ref="D54" r:id="rId44" location="applyHistory" xr:uid="{C3515084-6BBC-492A-9B5E-90DF84751603}"/>
-    <hyperlink ref="D57" r:id="rId45" xr:uid="{8E490727-515D-459A-A324-0B985DF73F69}"/>
-    <hyperlink ref="D59" r:id="rId46" xr:uid="{F14F8803-D8CF-4AF5-AE1D-66BD1CF37B80}"/>
-    <hyperlink ref="D60" r:id="rId47" location="/jobs?page=4" xr:uid="{04EF28EB-197B-4FE0-8BCF-0F898D637A93}"/>
-    <hyperlink ref="D61" r:id="rId48" location="/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" display="https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" xr:uid="{9DB32189-8199-40FA-9CE0-0C2A3FCE176A}"/>
-    <hyperlink ref="D62" r:id="rId49" xr:uid="{C5FF77C5-948A-44BA-BB67-12B9FC155F97}"/>
-    <hyperlink ref="D63" r:id="rId50" xr:uid="{661A3562-EB0C-4B77-9EB2-BE908B9CA27A}"/>
-    <hyperlink ref="D64" r:id="rId51" location="/myDeliver" xr:uid="{F1678EEA-1F24-47D6-A563-BA54384BDA19}"/>
-    <hyperlink ref="D66" r:id="rId52" xr:uid="{ADCF6B49-5740-44B1-A3CF-DE1E13A37FE4}"/>
-    <hyperlink ref="D67" r:id="rId53" xr:uid="{4C553459-855D-423C-8601-D816E1063706}"/>
-    <hyperlink ref="D28" r:id="rId54" location="/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837" display="https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837" xr:uid="{AEC2F6E0-7322-4087-80E7-6C34511DEAF2}"/>
-    <hyperlink ref="D39" r:id="rId55" location="/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863" display="https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863" xr:uid="{E0BE23B4-3946-4D31-BCEC-1DE8EEF966DE}"/>
-    <hyperlink ref="D68" r:id="rId56" location="/candidateHome/applications" xr:uid="{D615535A-3238-4E89-92D4-05B5501DAE4C}"/>
-    <hyperlink ref="D69" r:id="rId57" xr:uid="{02DC406F-A733-43F2-9CFF-77FAEC0549B6}"/>
-    <hyperlink ref="D70" r:id="rId58" location="Additional" xr:uid="{A7F44BC4-CFD6-4B83-AD3D-AC5BF6C0A57C}"/>
-    <hyperlink ref="D71" r:id="rId59" xr:uid="{1E118FDD-7695-46B6-B6D8-3615ABABAA7F}"/>
-    <hyperlink ref="D73" r:id="rId60" xr:uid="{89F9C3A9-E001-4743-B693-311DD688753D}"/>
-    <hyperlink ref="D74" r:id="rId61" location="/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" display="https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" xr:uid="{444B6118-0077-46C3-A485-6DE328C1F358}"/>
-    <hyperlink ref="D79" r:id="rId62" xr:uid="{AD38C1A0-CE1E-4730-BD60-E2D743C53945}"/>
-    <hyperlink ref="D81" r:id="rId63" xr:uid="{DF4D36CC-0DBD-417F-BC6A-B1FBC33B9A4D}"/>
-    <hyperlink ref="D30" r:id="rId64" location="/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8" xr:uid="{7CD1C7E4-CEE0-4EE6-A3B5-20B4F0027573}"/>
-    <hyperlink ref="D82" r:id="rId65" xr:uid="{D34F603E-7BC6-4983-BB4B-39A82B0A8260}"/>
-    <hyperlink ref="D83" r:id="rId66" xr:uid="{BC3511D4-2BF6-45D6-9068-73AA5C40C8FC}"/>
-    <hyperlink ref="D84" r:id="rId67" xr:uid="{00A0C3D1-4AF2-492B-AA3C-B1510EEA7F12}"/>
-    <hyperlink ref="D85" r:id="rId68" location="/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" display="https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" xr:uid="{1C6ED219-40CD-4E27-B918-60C9FF33CD05}"/>
-    <hyperlink ref="D86" r:id="rId69" xr:uid="{A942BA73-6034-461F-AE82-ACEB9B4ECB20}"/>
-    <hyperlink ref="D89" r:id="rId70" xr:uid="{183B6ECA-A669-4D84-9CA1-60E5769694F6}"/>
-    <hyperlink ref="D87" r:id="rId71" xr:uid="{F9A89B8B-F647-441E-8662-A375068478A3}"/>
-    <hyperlink ref="D90" r:id="rId72" xr:uid="{DD75A15E-D2BA-42D7-A779-6450E6FB28EA}"/>
-    <hyperlink ref="D91" r:id="rId73" display="https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145" xr:uid="{79D627D5-4D2B-4EC7-AB25-09516BFF4C83}"/>
-    <hyperlink ref="D92" r:id="rId74" xr:uid="{73636894-6593-44FD-AFDB-9A3F7730CBD5}"/>
-    <hyperlink ref="D93" r:id="rId75" xr:uid="{1D856473-BC2E-42DB-AB61-8B986EE1E1E7}"/>
-    <hyperlink ref="D33" r:id="rId76" xr:uid="{EECD55F6-BE8A-46E3-8A3C-68191B3D3107}"/>
-    <hyperlink ref="D94" r:id="rId77" display="https://xyz.51job.com/External/MyResume/ResumeEnd.aspx?ctmid=a291a7a2-d53a-4174-b1cd-d3d3aec3a888&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp_2%2finc%2f&amp;CtmName=%e8%8a%af%e5%8e%9f%e8%82%a1%e4%bb%bd&amp;resumeid=acc399a0-1d77-4f3d-8ee8-3fe83227e08e&amp;jobid=bdc0035d-b3fb-4f3d-b127-f5810c715f01&amp;accountid=214905113&amp;entype=&amp;ismap3=False" xr:uid="{695E7167-75AA-48F9-BD79-743955788282}"/>
-    <hyperlink ref="D96" r:id="rId78" xr:uid="{70F37066-20AE-441D-823D-A3566D443007}"/>
-    <hyperlink ref="D97" r:id="rId79" location="/job/211f9885-3107-4f08-adde-90cbcedb9bb5" xr:uid="{49EFBA7F-4C4F-4520-999E-0ED36823AEFB}"/>
-    <hyperlink ref="D98" r:id="rId80" xr:uid="{A4C5753A-4D7C-436A-9703-7D969652A59C}"/>
-    <hyperlink ref="D99" r:id="rId81" location="/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" display="https://app.mokahr.com/recommendation-apply/papegames/78050?sharePageId=1633270&amp;recommendCode=NTAJfhk&amp;codeType=1#/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" xr:uid="{9278C9C0-C7D7-403C-8A85-0292664200EE}"/>
-    <hyperlink ref="D102" r:id="rId82" location="/personalCenter" xr:uid="{9625FEA2-FBB6-48A4-A587-23E6F47E6C87}"/>
+    <hyperlink ref="D13" r:id="rId1" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
+    <hyperlink ref="D15" r:id="rId2" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
+    <hyperlink ref="D18" r:id="rId4" display="https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT" xr:uid="{34C9BD72-C08B-496B-81E5-666679A118BE}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{D2B4C923-D608-4FA0-A8EF-5F6E73226A07}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{F3FB61E7-83E4-44C0-8BB4-FF175812DA35}"/>
+    <hyperlink ref="D20" r:id="rId7" location="/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" display="https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" xr:uid="{25DEFAD3-BE4D-4B8D-887D-4D8ACD05D1FB}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
+    <hyperlink ref="D22" r:id="rId9" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
+    <hyperlink ref="D23" r:id="rId10" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{D8908D8D-339B-4A44-9EE0-2AD5C58E6FC0}"/>
+    <hyperlink ref="D26" r:id="rId12" location="/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" display="https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" xr:uid="{D69AE79B-E8F5-4619-B3FC-A2D3930EAC09}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{7B61006C-8271-40B8-A940-6232EE997636}"/>
+    <hyperlink ref="D30" r:id="rId14" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
+    <hyperlink ref="D31" r:id="rId15" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
+    <hyperlink ref="D33" r:id="rId16" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{126AEC9E-535F-4EAC-A74E-B6B4CEEEBC37}"/>
+    <hyperlink ref="D35" r:id="rId18" xr:uid="{8702946E-771C-402D-B076-F638EAC369DC}"/>
+    <hyperlink ref="D36" r:id="rId19" location="/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" display="https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" xr:uid="{5B93FF04-FDA7-4BDD-9F64-D0462616FA48}"/>
+    <hyperlink ref="D40" r:id="rId20" xr:uid="{DEA94A4D-D6EC-4728-B3BE-300EBDA2C896}"/>
+    <hyperlink ref="D39" r:id="rId21" location="/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" display="https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" xr:uid="{A64BDD8B-AD8C-4E23-B78D-7544BD930BC6}"/>
+    <hyperlink ref="D41" r:id="rId22" xr:uid="{4C3F93D9-1E21-47DC-AEAA-272234CAA0E1}"/>
+    <hyperlink ref="D42" r:id="rId23" xr:uid="{F3A7AE1B-F993-40E5-A53C-503DD2077C4B}"/>
+    <hyperlink ref="D12" r:id="rId24" location="/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" display="https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" xr:uid="{D18F981C-45A9-440A-A74B-06C45C1D2870}"/>
+    <hyperlink ref="D10" r:id="rId25" location="/full" xr:uid="{5B70AE1A-9D1A-49C2-A5A4-B6B74B3F705E}"/>
+    <hyperlink ref="D11" r:id="rId26" location="/candidateHome/applications" xr:uid="{378FA5D6-1950-416C-A9C4-A5EF505C775E}"/>
+    <hyperlink ref="D9" r:id="rId27" location="/job/d38609fe-1604-4ad1-923b-7b9627df98d1" xr:uid="{DC1064D8-B412-4DC9-8FE1-3BDFEB00C2D7}"/>
+    <hyperlink ref="D8" r:id="rId28" xr:uid="{2D41AE62-10F1-4D4B-9A25-6B060B87EEF2}"/>
+    <hyperlink ref="D7" r:id="rId29" xr:uid="{392FFA28-798E-4326-9E68-722BEAD822EE}"/>
+    <hyperlink ref="D6" r:id="rId30" location="/candidateHome/applications" xr:uid="{9B646295-FD59-4976-A8DE-BA81C116058B}"/>
+    <hyperlink ref="D5" r:id="rId31" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
+    <hyperlink ref="D4" r:id="rId32" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
+    <hyperlink ref="D3" r:id="rId33" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
+    <hyperlink ref="D43" r:id="rId34" xr:uid="{63092609-4A08-4927-9624-AB905BEB5187}"/>
+    <hyperlink ref="D44" r:id="rId35" xr:uid="{A284D812-A9FE-4F8C-A16C-54EC02760302}"/>
+    <hyperlink ref="D14" r:id="rId36" xr:uid="{5F295242-999E-40E5-B3D0-FC63A75529DB}"/>
+    <hyperlink ref="D45" r:id="rId37" location="/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" display="https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" xr:uid="{F924C742-A6C7-4A23-8AD5-5F76AC75D1D4}"/>
+    <hyperlink ref="D46" r:id="rId38" location="/viewDynamic?t=t" display="https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t" xr:uid="{C6404F55-FDF4-44D3-A49B-2D70C90DFF8B}"/>
+    <hyperlink ref="D48" r:id="rId39" xr:uid="{F22E1D41-671B-475E-B515-367AEDE5AE39}"/>
+    <hyperlink ref="D49" r:id="rId40" location="/deliverSuccess" xr:uid="{19E77E4D-2BEE-4F94-A068-01EE640F1C23}"/>
+    <hyperlink ref="D50" r:id="rId41" location="/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" display="https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" xr:uid="{40DBFE18-2A3E-4935-9BCB-58314CEA506D}"/>
+    <hyperlink ref="D51" r:id="rId42" xr:uid="{44DA8F16-2596-4178-A3CB-4D058191F2EC}"/>
+    <hyperlink ref="D52" r:id="rId43" xr:uid="{D5D3FB8A-DD23-43A7-B831-9F526F2056BB}"/>
+    <hyperlink ref="D53" r:id="rId44" location="applyHistory" xr:uid="{C3515084-6BBC-492A-9B5E-90DF84751603}"/>
+    <hyperlink ref="D56" r:id="rId45" xr:uid="{8E490727-515D-459A-A324-0B985DF73F69}"/>
+    <hyperlink ref="D58" r:id="rId46" xr:uid="{F14F8803-D8CF-4AF5-AE1D-66BD1CF37B80}"/>
+    <hyperlink ref="D59" r:id="rId47" location="/jobs?page=4" xr:uid="{04EF28EB-197B-4FE0-8BCF-0F898D637A93}"/>
+    <hyperlink ref="D60" r:id="rId48" location="/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" display="https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" xr:uid="{9DB32189-8199-40FA-9CE0-0C2A3FCE176A}"/>
+    <hyperlink ref="D61" r:id="rId49" xr:uid="{C5FF77C5-948A-44BA-BB67-12B9FC155F97}"/>
+    <hyperlink ref="D62" r:id="rId50" xr:uid="{661A3562-EB0C-4B77-9EB2-BE908B9CA27A}"/>
+    <hyperlink ref="D63" r:id="rId51" location="/myDeliver" xr:uid="{F1678EEA-1F24-47D6-A563-BA54384BDA19}"/>
+    <hyperlink ref="D65" r:id="rId52" xr:uid="{ADCF6B49-5740-44B1-A3CF-DE1E13A37FE4}"/>
+    <hyperlink ref="D66" r:id="rId53" xr:uid="{4C553459-855D-423C-8601-D816E1063706}"/>
+    <hyperlink ref="D27" r:id="rId54" location="/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837" display="https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837" xr:uid="{AEC2F6E0-7322-4087-80E7-6C34511DEAF2}"/>
+    <hyperlink ref="D38" r:id="rId55" location="/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863" display="https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863" xr:uid="{E0BE23B4-3946-4D31-BCEC-1DE8EEF966DE}"/>
+    <hyperlink ref="D67" r:id="rId56" location="/candidateHome/applications" xr:uid="{D615535A-3238-4E89-92D4-05B5501DAE4C}"/>
+    <hyperlink ref="D68" r:id="rId57" xr:uid="{02DC406F-A733-43F2-9CFF-77FAEC0549B6}"/>
+    <hyperlink ref="D69" r:id="rId58" location="Additional" xr:uid="{A7F44BC4-CFD6-4B83-AD3D-AC5BF6C0A57C}"/>
+    <hyperlink ref="D70" r:id="rId59" xr:uid="{1E118FDD-7695-46B6-B6D8-3615ABABAA7F}"/>
+    <hyperlink ref="D72" r:id="rId60" xr:uid="{89F9C3A9-E001-4743-B693-311DD688753D}"/>
+    <hyperlink ref="D73" r:id="rId61" location="/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" display="https://app.mokahr.com/campus-recruitment/zeku/47716#/job/691d8373-e265-45a5-881f-6986865765a6/campus_apply/thanks?jobId=691d8373-e265-45a5-881f-6986865765a6&amp;recommendCode=NTAMH6D&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMH6D&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362937349" xr:uid="{444B6118-0077-46C3-A485-6DE328C1F358}"/>
+    <hyperlink ref="D78" r:id="rId62" xr:uid="{AD38C1A0-CE1E-4730-BD60-E2D743C53945}"/>
+    <hyperlink ref="D80" r:id="rId63" xr:uid="{DF4D36CC-0DBD-417F-BC6A-B1FBC33B9A4D}"/>
+    <hyperlink ref="D29" r:id="rId64" location="/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8" xr:uid="{7CD1C7E4-CEE0-4EE6-A3B5-20B4F0027573}"/>
+    <hyperlink ref="D81" r:id="rId65" xr:uid="{D34F603E-7BC6-4983-BB4B-39A82B0A8260}"/>
+    <hyperlink ref="D82" r:id="rId66" xr:uid="{BC3511D4-2BF6-45D6-9068-73AA5C40C8FC}"/>
+    <hyperlink ref="D83" r:id="rId67" xr:uid="{00A0C3D1-4AF2-492B-AA3C-B1510EEA7F12}"/>
+    <hyperlink ref="D84" r:id="rId68" location="/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" display="https://app.mokahr.com/campus-recruitment/starblaze/42492#/job/d0a2729e-0581-4993-a91c-07bddc3703f1/campus_apply/thanks?jobId=d0a2729e-0581-4993-a91c-07bddc3703f1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%88%90%E9%83%BD%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363217079" xr:uid="{1C6ED219-40CD-4E27-B918-60C9FF33CD05}"/>
+    <hyperlink ref="D85" r:id="rId69" xr:uid="{A942BA73-6034-461F-AE82-ACEB9B4ECB20}"/>
+    <hyperlink ref="D88" r:id="rId70" xr:uid="{183B6ECA-A669-4D84-9CA1-60E5769694F6}"/>
+    <hyperlink ref="D86" r:id="rId71" xr:uid="{F9A89B8B-F647-441E-8662-A375068478A3}"/>
+    <hyperlink ref="D89" r:id="rId72" xr:uid="{DD75A15E-D2BA-42D7-A779-6450E6FB28EA}"/>
+    <hyperlink ref="D90" r:id="rId73" display="https://www.nowcoder.com/discuss/986722?type=all&amp;order=recall&amp;pos=&amp;page=2&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1661227547145" xr:uid="{79D627D5-4D2B-4EC7-AB25-09516BFF4C83}"/>
+    <hyperlink ref="D91" r:id="rId74" xr:uid="{73636894-6593-44FD-AFDB-9A3F7730CBD5}"/>
+    <hyperlink ref="D92" r:id="rId75" xr:uid="{1D856473-BC2E-42DB-AB61-8B986EE1E1E7}"/>
+    <hyperlink ref="D32" r:id="rId76" xr:uid="{EECD55F6-BE8A-46E3-8A3C-68191B3D3107}"/>
+    <hyperlink ref="D93" r:id="rId77" display="https://xyz.51job.com/External/MyResume/ResumeEnd.aspx?ctmid=a291a7a2-d53a-4174-b1cd-d3d3aec3a888&amp;css=%2f%2fimg03.51jobcdn.com%2fehireplus%2f2022%2fstyle%2fehireplus2009%2fcp_2%2finc%2f&amp;CtmName=%e8%8a%af%e5%8e%9f%e8%82%a1%e4%bb%bd&amp;resumeid=acc399a0-1d77-4f3d-8ee8-3fe83227e08e&amp;jobid=bdc0035d-b3fb-4f3d-b127-f5810c715f01&amp;accountid=214905113&amp;entype=&amp;ismap3=False" xr:uid="{695E7167-75AA-48F9-BD79-743955788282}"/>
+    <hyperlink ref="D95" r:id="rId78" xr:uid="{70F37066-20AE-441D-823D-A3566D443007}"/>
+    <hyperlink ref="D96" r:id="rId79" location="/job/211f9885-3107-4f08-adde-90cbcedb9bb5" xr:uid="{49EFBA7F-4C4F-4520-999E-0ED36823AEFB}"/>
+    <hyperlink ref="D97" r:id="rId80" xr:uid="{A4C5753A-4D7C-436A-9703-7D969652A59C}"/>
+    <hyperlink ref="D98" r:id="rId81" location="/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" display="https://app.mokahr.com/recommendation-apply/papegames/78050?sharePageId=1633270&amp;recommendCode=NTAJfhk&amp;codeType=1#/job/a17d3000-d5e4-4717-9b6d-80ed8ab795c5/apply/thanks?jobId=a17d3000-d5e4-4717-9b6d-80ed8ab795c5&amp;recommendCode=NTAJfhk&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=363649884" xr:uid="{9278C9C0-C7D7-403C-8A85-0292664200EE}"/>
+    <hyperlink ref="D101" r:id="rId82" location="/personalCenter" xr:uid="{9625FEA2-FBB6-48A4-A587-23E6F47E6C87}"/>
+    <hyperlink ref="D105" r:id="rId83" location="/job/48b56547-e167-441b-86f1-511f6da5aff9/campus_apply/thanks?jobId=48b56547-e167-441b-86f1-511f6da5aff9&amp;recommendCode=NTAHiTm&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAHiTm&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364138005" display="https://app.mokahr.com/campus_apply/xiaomi/47097#/job/48b56547-e167-441b-86f1-511f6da5aff9/campus_apply/thanks?jobId=48b56547-e167-441b-86f1-511f6da5aff9&amp;recommendCode=NTAHiTm&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAHiTm&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364138005" xr:uid="{CAF110E9-BACC-4508-9550-6C63D6073379}"/>
+    <hyperlink ref="D106" r:id="rId84" location="/job/19327482-ee67-491b-9ac3-e25d2437ef8c/campus_apply/thanks?jobId=19327482-ee67-491b-9ac3-e25d2437ef8c&amp;recommendCode=NTAMjuS&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMjuS&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364143228" display="https://app.mokahr.com/campus_apply/zwcad/28356#/job/19327482-ee67-491b-9ac3-e25d2437ef8c/campus_apply/thanks?jobId=19327482-ee67-491b-9ac3-e25d2437ef8c&amp;recommendCode=NTAMjuS&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMjuS&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364143228" xr:uid="{32920482-43E7-4C85-A130-DA841D9B98ED}"/>
+    <hyperlink ref="D108" r:id="rId85" location="/job/acd6d420-0eaf-48e3-89b4-1b6096fc0177/campus_apply/thanks?jobId=acd6d420-0eaf-48e3-89b4-1b6096fc0177&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSbBnxVY&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364152818" display="https://app.mokahr.com/campus_apply/garena/38200?recommendCode=DSbBnxVY#/job/acd6d420-0eaf-48e3-89b4-1b6096fc0177/campus_apply/thanks?jobId=acd6d420-0eaf-48e3-89b4-1b6096fc0177&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSbBnxVY&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364152818" xr:uid="{30947CE7-48D0-4A8C-973D-966799F1BF45}"/>
+    <hyperlink ref="D109" r:id="rId86" location="/job/0446246c-27ad-4ee5-a167-30716a0e97db/campus_apply/thanks?jobId=0446246c-27ad-4ee5-a167-30716a0e97db&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSERrb96&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364149162" display="https://app.mokahr.com/campus_apply/sunmi/4414?recommendCode=DSERrb96#/job/0446246c-27ad-4ee5-a167-30716a0e97db/campus_apply/thanks?jobId=0446246c-27ad-4ee5-a167-30716a0e97db&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSERrb96&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364149162" xr:uid="{1DF4D0D5-B8A4-47BC-89F6-7DE49BBF8939}"/>
+    <hyperlink ref="D110" r:id="rId87" location="/candidateHome/applications" xr:uid="{147B8B95-4C2B-4C62-9696-21C6CCAEABA6}"/>
+    <hyperlink ref="D112" r:id="rId88" location="/schoolDetail?id=f9b0e66795e048b598aa2a77509d9cd7&amp;type=3" xr:uid="{A3A6C580-B596-4844-BD4A-29571C107A30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A11421-DEBB-4E77-8E13-E946891C05E9}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D686E6A8-33FA-4B31-9C35-47186A22F950}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6192" yWindow="4200" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="273">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,22 +951,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.26     19:00 - 20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.5       19:00 - 20:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交银金融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.28 10:00   需要8.27 13.00参加空宣并报名登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.28 19:00 -- 21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,10 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测评8.25 18:00 ~ 8.26 20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://app.mokahr.com/campus_apply/xiaomi/47097#/job/48b56547-e167-441b-86f1-511f6da5aff9/campus_apply/thanks?jobId=48b56547-e167-441b-86f1-511f6da5aff9&amp;recommendCode=NTAHiTm&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAHiTm&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364138005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,10 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太初科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帆软</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,14 +1023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.27 14:00 - 17:00 2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.27 19:00 -21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C++开发，看截屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,10 +1050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.31 18:30 - 20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试长期有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1098,34 +1066,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>周五晚上猿辅导 19:00-20;30      ,周六 下午15:00-17:00考360，周六晚上考京东 19:00-21:00, 互娱和美团放弃。周六下午13:00需要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>参加空宣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并报名等级芯原笔试， 周日上午10:00-11:30考芯原， 周日晚上19：00-21：00考文远知行。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.29 周一 14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,6 +1075,34 @@
   </si>
   <si>
     <t>9.1 周四 9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.28 16:00 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 18:30 - 20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11后，嵌入式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 19:00-20:40:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午16：00-18：00小红书 周日晚上19：00-21：00考文远知行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太初科技，大华股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,14 +1145,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1207,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1226,7 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1511,21 +1470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="59.25" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1620,7 +1579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -1648,7 +1607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1662,7 +1621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1718,7 +1677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1732,7 +1691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1760,7 +1719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1774,7 +1733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4399</v>
       </c>
@@ -1788,7 +1747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -1816,7 +1775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1830,7 +1789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1844,7 +1803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -1855,7 +1814,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>231</v>
       </c>
@@ -1869,7 +1828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1842,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -1897,7 +1856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -1911,7 +1870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1925,7 +1884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -1939,7 +1898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -1953,7 +1912,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -1967,7 +1926,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -1981,7 +1940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -1995,7 +1954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2009,7 +1968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2023,7 +1982,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
@@ -2034,7 +1993,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
@@ -2048,7 +2007,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -2062,7 +2021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2076,7 +2035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
@@ -2090,7 +2049,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -2104,7 +2063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -2118,7 +2077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -2132,7 +2091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>104</v>
       </c>
@@ -2146,7 +2105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>106</v>
       </c>
@@ -2160,7 +2119,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -2174,7 +2133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +2147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -2202,7 +2161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -2216,7 +2175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -2230,7 +2189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -2244,7 +2203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>121</v>
       </c>
@@ -2258,7 +2217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -2272,7 +2231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>125</v>
       </c>
@@ -2286,7 +2245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -2300,7 +2259,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
@@ -2314,7 +2273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
@@ -2328,7 +2287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>135</v>
       </c>
@@ -2342,7 +2301,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>137</v>
       </c>
@@ -2356,7 +2315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>139</v>
       </c>
@@ -2370,7 +2329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>141</v>
       </c>
@@ -2384,7 +2343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>143</v>
       </c>
@@ -2398,7 +2357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2412,7 +2371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2426,7 +2385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>149</v>
       </c>
@@ -2440,7 +2399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>154</v>
       </c>
@@ -2454,7 +2413,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>156</v>
       </c>
@@ -2468,7 +2427,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -2482,7 +2441,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>160</v>
       </c>
@@ -2496,7 +2455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>162</v>
       </c>
@@ -2510,7 +2469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>164</v>
       </c>
@@ -2524,7 +2483,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>166</v>
       </c>
@@ -2538,7 +2497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>169</v>
       </c>
@@ -2552,7 +2511,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>171</v>
       </c>
@@ -2566,7 +2525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>173</v>
       </c>
@@ -2580,7 +2539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -2594,7 +2553,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>177</v>
       </c>
@@ -2608,7 +2567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>179</v>
       </c>
@@ -2622,7 +2581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>181</v>
       </c>
@@ -2636,7 +2595,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -2650,7 +2609,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>185</v>
       </c>
@@ -2664,7 +2623,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>188</v>
       </c>
@@ -2678,7 +2637,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>190</v>
       </c>
@@ -2692,7 +2651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>192</v>
       </c>
@@ -2706,7 +2665,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>194</v>
       </c>
@@ -2720,7 +2679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -2734,7 +2693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -2748,7 +2707,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>200</v>
       </c>
@@ -2762,7 +2721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>202</v>
       </c>
@@ -2773,10 +2732,10 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2790,7 +2749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>208</v>
       </c>
@@ -2804,7 +2763,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>211</v>
       </c>
@@ -2818,7 +2777,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>213</v>
       </c>
@@ -2832,7 +2791,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>215</v>
       </c>
@@ -2846,7 +2805,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>217</v>
       </c>
@@ -2860,7 +2819,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>219</v>
       </c>
@@ -2874,7 +2833,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>221</v>
       </c>
@@ -2888,7 +2847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>223</v>
       </c>
@@ -2902,7 +2861,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>224</v>
       </c>
@@ -2916,7 +2875,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>226</v>
       </c>
@@ -2930,7 +2889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>228</v>
       </c>
@@ -2944,7 +2903,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>229</v>
       </c>
@@ -2958,9 +2917,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -2972,9 +2931,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -2983,12 +2942,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -2997,12 +2956,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -3014,9 +2973,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -3025,12 +2984,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -3039,26 +2998,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3067,12 +3026,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3081,216 +3040,200 @@
         <v>8.26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>52</v>
-      </c>
-      <c r="B133" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>92</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>207</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>236</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>112</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>360</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>261</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="B143" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>230</v>
+      </c>
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>231</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C158" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C159" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>229</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C160" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>111</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>206</v>
-      </c>
-      <c r="B145" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>233</v>
-      </c>
-      <c r="B146" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>230</v>
-      </c>
-      <c r="B150" s="7"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>231</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>123</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C152" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>229</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C153" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>273</v>
-      </c>
-      <c r="C154" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>108</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="C162" t="s">
         <v>90</v>
       </c>
     </row>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D686E6A8-33FA-4B31-9C35-47186A22F950}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9DCEC5-AABB-4BDF-84CE-55CD81C150C6}"/>
   <bookViews>
-    <workbookView xWindow="6192" yWindow="4200" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="271">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.28 19:00 -- 21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星环科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,10 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.28 16:00 - 18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.10 18:30 - 20:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1098,11 +1090,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午16：00-18：00小红书 周日晚上19：00-21：00考文远知行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太初科技，大华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一8.29 14:00 经纬恒润，19：00中兴；周二8.30 网龙，远景；快手；周三8.31华为，浪潮；周四安克创新；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2724,7 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2911,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -2933,7 +2925,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -2942,12 +2934,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -2956,12 +2948,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -2975,7 +2967,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -2984,12 +2976,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2998,26 +2990,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" t="s">
         <v>247</v>
-      </c>
-      <c r="B110" t="s">
-        <v>248</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3026,12 +3018,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3040,22 +3032,22 @@
         <v>8.26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" s="8"/>
     </row>
@@ -3085,7 +3077,7 @@
         <v>207</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,52 +3085,52 @@
         <v>219</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>92</v>
+      <c r="A135" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>254</v>
+      <c r="A136" t="s">
+        <v>111</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>111</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" t="s">
-        <v>232</v>
-      </c>
-    </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>206</v>
+      <c r="A140" t="s">
+        <v>233</v>
       </c>
       <c r="B140" t="s">
         <v>259</v>
@@ -3146,94 +3138,78 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>233</v>
-      </c>
-      <c r="B141" t="s">
-        <v>260</v>
+        <v>144</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="B142" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" t="s">
-        <v>268</v>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C156" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>230</v>
-      </c>
-      <c r="B157" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>231</v>
-      </c>
-      <c r="B158" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" t="s">
         <v>251</v>
-      </c>
-      <c r="C158" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>123</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>263</v>
       </c>
       <c r="C159" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>229</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>263</v>
+        <v>108</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C162" t="s">
         <v>90</v>
       </c>
     </row>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9DCEC5-AABB-4BDF-84CE-55CD81C150C6}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C4D76A-9AAA-4544-A4B1-E747DC406B65}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11208" yWindow="1884" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>远景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,10 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中新赛克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,26 +1038,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试长期有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.1 ~ 9.10发笔试通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.24~8.30考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.31考试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29 周一 14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.30 周二 17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,19 +1058,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29 19:00-20:40:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太初科技，大华股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一8.29 14:00 经纬恒润，19：00中兴；周二8.30 网龙，远景；快手；周三8.31华为，浪潮；周四安克创新；</t>
+    <t>9.2 周五 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5 周一具体时间未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30 周二 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 - 9.4测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科创达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 - 9.3 C++开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之江实验室有工作经历后可以去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29-9.7测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/wellintech/72020?recommendCode=DSfRUgAv#/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.webank.com/campus-recruitment/webankhr/18005/#/job/cadb4a30-2d34-439d-80ba-643c3a4e6000/campus_apply/thanks?jobId=cadb4a30-2d34-439d-80ba-643c3a4e6000&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=6004&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSthURHT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=4456579</t>
+  </si>
+  <si>
+    <t>卡方科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29-9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀚博半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vastaitech.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.wondershare.cn/campus_apply/wanxingkeji/41591/#/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31 16:00-21:00测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29-8.31 测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31考试 19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1204,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1159,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1181,6 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1462,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1884,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -1915,7 +1991,7 @@
         <v>8.17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2724,7 +2800,7 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2819,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s">
         <v>167</v>
@@ -2752,12 +2828,12 @@
         <v>8.24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -2766,12 +2842,12 @@
         <v>8.24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -2780,12 +2856,12 @@
         <v>8.24</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
@@ -2794,12 +2870,12 @@
         <v>8.24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
@@ -2808,12 +2884,12 @@
         <v>8.24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -2822,12 +2898,12 @@
         <v>8.24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -2836,12 +2912,12 @@
         <v>8.24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -2850,12 +2926,12 @@
         <v>8.24</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
         <v>46</v>
@@ -2864,12 +2940,12 @@
         <v>8.24</v>
       </c>
       <c r="D100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -2878,12 +2954,12 @@
         <v>8.24</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -2892,12 +2968,12 @@
         <v>8.24</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -2911,7 +2987,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -2920,12 +2996,12 @@
         <v>8.25</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -2934,12 +3010,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -2948,12 +3024,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -2962,12 +3038,12 @@
         <v>8.25</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -2976,12 +3052,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2990,26 +3066,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3018,12 +3094,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3032,40 +3108,100 @@
         <v>8.26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
+      <c r="B113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="6">
+        <v>8.26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -3074,148 +3210,217 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>260</v>
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>257</v>
+      <c r="A135" t="s">
+        <v>284</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>111</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>268</v>
+      <c r="A137" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" t="s">
-        <v>232</v>
+      <c r="A138" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" t="s">
-        <v>258</v>
+        <v>267</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" t="s">
-        <v>259</v>
+      <c r="A140" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>75</v>
       </c>
-      <c r="B142" t="s">
-        <v>266</v>
-      </c>
+      <c r="B145" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" s="8"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>230</v>
-      </c>
-      <c r="B155" s="7"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>231</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C156" t="s">
-        <v>252</v>
-      </c>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>123</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" t="s">
-        <v>57</v>
-      </c>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>229</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C158" t="s">
-        <v>251</v>
-      </c>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" t="s">
-        <v>263</v>
+        <v>229</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>108</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B162" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>228</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C164" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A124:B128"/>
+    <mergeCell ref="A154:B158"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3307,8 +3512,11 @@
     <hyperlink ref="D109" r:id="rId86" location="/job/0446246c-27ad-4ee5-a167-30716a0e97db/campus_apply/thanks?jobId=0446246c-27ad-4ee5-a167-30716a0e97db&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSERrb96&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364149162" display="https://app.mokahr.com/campus_apply/sunmi/4414?recommendCode=DSERrb96#/job/0446246c-27ad-4ee5-a167-30716a0e97db/campus_apply/thanks?jobId=0446246c-27ad-4ee5-a167-30716a0e97db&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSERrb96&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=364149162" xr:uid="{1DF4D0D5-B8A4-47BC-89F6-7DE49BBF8939}"/>
     <hyperlink ref="D110" r:id="rId87" location="/candidateHome/applications" xr:uid="{147B8B95-4C2B-4C62-9696-21C6CCAEABA6}"/>
     <hyperlink ref="D112" r:id="rId88" location="/schoolDetail?id=f9b0e66795e048b598aa2a77509d9cd7&amp;type=3" xr:uid="{A3A6C580-B596-4844-BD4A-29571C107A30}"/>
+    <hyperlink ref="D115" r:id="rId89" location="/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123" display="https://app.mokahr.com/campus_apply/wellintech/72020?recommendCode=DSfRUgAv#/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123" xr:uid="{0B65D10C-B29F-4E54-882E-AF17601F1DDB}"/>
+    <hyperlink ref="D118" r:id="rId90" xr:uid="{2A7B7BC3-EB47-4820-A372-273D4184D567}"/>
+    <hyperlink ref="D119" r:id="rId91" location="/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837" display="https://campus.wondershare.cn/campus_apply/wanxingkeji/41591/#/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837" xr:uid="{496024D2-6E76-464C-948E-80F952B78843}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C4D76A-9AAA-4544-A4B1-E747DC406B65}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E04CEA9-6E44-40C8-A2D4-8DE012A6CB83}"/>
   <bookViews>
-    <workbookView xWindow="11208" yWindow="1884" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="2736" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="296">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,18 +935,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(已延期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荔枝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.5       19:00 - 20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星环科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1034,26 +1026,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测评+笔试，长期有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.1 ~ 9.10发笔试通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.30 周二 17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.1 周四 9:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.10 18:30 - 20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.11后，嵌入式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,10 +1046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.5 周一具体时间未定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.30 周二 16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,10 +1054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.29 - 9.4测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中科创达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1090,18 +1062,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>之江实验室有工作经历后可以去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.29-9.7测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吉利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,14 +1089,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29-9.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瀚博半导体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1149,19 +1105,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺丰科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.31 16:00-21:00测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29-8.31 测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.31考试 19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31 18:00-23:00 100min C++，8.31全天测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5 周一 10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31 周三 9:50，期望调整到9.5 周一14：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 18:30 - 20:30测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5       19:00 - 20:30，测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已延期），测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31周三晚 华为，广联达；9.1周四上午安克面试，晚 深信服；9.2周五浪潮，豪威面试；9.3周六中科创达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7，9.21测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7,9.14 19:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.cvte.com/zone/resume/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰隆银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金证科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推提交https://www.nowcoder.com/feed/main/detail/99e1e11eb68d49aaaee57ac5f61f1794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/lusterinc/44882?recommendCode=DSnQR6md#/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌云光技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,14 +1236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1234,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1256,7 +1280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1538,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2800,7 +2823,7 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2987,7 +3010,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -3001,7 +3024,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -3010,12 +3033,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -3024,12 +3047,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -3043,7 +3066,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -3052,12 +3075,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -3066,26 +3089,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3094,32 +3117,32 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
       </c>
       <c r="C112" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D113" t="s">
         <v>213</v>
@@ -3127,13 +3150,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
       </c>
       <c r="C114" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D114" t="s">
         <v>213</v>
@@ -3141,41 +3164,41 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
       </c>
       <c r="C115" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
       </c>
       <c r="C116" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="6">
-        <v>8.26</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D117" t="s">
         <v>124</v>
@@ -3183,244 +3206,315 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
       </c>
+      <c r="C118" s="6">
+        <v>8.2899999999999991</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
       </c>
+      <c r="C119" s="6">
+        <v>8.2899999999999991</v>
+      </c>
       <c r="D119" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>206</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>282</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>284</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>230</v>
+      </c>
+      <c r="B157" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>144</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B138" s="7" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>111</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>62</v>
       </c>
-      <c r="B142" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>231</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="B161" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>270</v>
-      </c>
-      <c r="B146" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B154" s="8"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C159" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B169" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>123</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B170" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>108</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C171" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C172" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C162" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C163" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>228</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C164" t="s">
-        <v>249</v>
+      <c r="B173" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C173" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A154:B158"/>
+    <mergeCell ref="A140:B144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3515,8 +3609,12 @@
     <hyperlink ref="D115" r:id="rId89" location="/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123" display="https://app.mokahr.com/campus_apply/wellintech/72020?recommendCode=DSfRUgAv#/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123" xr:uid="{0B65D10C-B29F-4E54-882E-AF17601F1DDB}"/>
     <hyperlink ref="D118" r:id="rId90" xr:uid="{2A7B7BC3-EB47-4820-A372-273D4184D567}"/>
     <hyperlink ref="D119" r:id="rId91" location="/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837" display="https://campus.wondershare.cn/campus_apply/wanxingkeji/41591/#/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837" xr:uid="{496024D2-6E76-464C-948E-80F952B78843}"/>
+    <hyperlink ref="D120" r:id="rId92" xr:uid="{511F0461-87D6-4939-AF93-73B9E0FB2571}"/>
+    <hyperlink ref="D121" r:id="rId93" display="https://www.nowcoder.com/feed/main/detail/99e1e11eb68d49aaaee57ac5f61f1794" xr:uid="{28D37DDF-D27A-4DA0-8BF6-BA553F41456B}"/>
+    <hyperlink ref="D123" r:id="rId94" location="/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525" display="https://app.mokahr.com/campus_apply/lusterinc/44882?recommendCode=DSnQR6md#/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525" xr:uid="{3C5C615F-C3C2-4518-BA4A-DC98A6E44033}"/>
+    <hyperlink ref="D124" r:id="rId95" location="/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" display="https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" xr:uid="{19195581-2439-4143-8BD5-96EE38082714}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E04CEA9-6E44-40C8-A2D4-8DE012A6CB83}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B79BC6-7721-46B5-AD68-1A0A3B3013AD}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="2736" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="308">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,10 +847,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TPLINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -935,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荔枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星环科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,14 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.30 ~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++开发，看截屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,10 +1018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.1 ~ 9.10发笔试通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.1 周四 9:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,22 +1034,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.30 周二 16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1 19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中科创达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.29 - 9.3 C++开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1105,22 +1081,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.31考试 19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.31 18:00-23:00 100min C++，8.31全天测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.5 周一 10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.31 周三 9:50，期望调整到9.5 周一14：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,18 +1089,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.5       19:00 - 20:30，测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(已延期），测开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.31周三晚 华为，广联达；9.1周四上午安克面试，晚 深信服；9.2周五浪潮，豪威面试；9.3周六中科创达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哔哩哔哩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1149,10 +1101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.7，9.21测开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,6 +1142,123 @@
   </si>
   <si>
     <t>https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 周三 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 周日 10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3 周一以后，注意时间不要重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5  19:00 - 20:30，测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 - 9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为旌科技 牛客在问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/uih2023/#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开/偏向嵌入式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superX计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 周三 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 周二16:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 周二 10:50-11:20，需要提前10分钟签到，准备身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 - 9.4 18:00截止！ C++开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3 周六 11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 周日上午10:30thoughtworks面试，下午16:00前必须完成中科创达，下午或者晚上再完成亚控笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 周二 15:10</t>
+  </si>
+  <si>
+    <t>准备二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 周二 ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软开，长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【中新赛克校招复试邀请】
+孙志豪同学，您好！
+恭喜你通过我司的一轮技术面试，现邀请你参加我司C开发岗位的复试
+时间：2022-9-6（周二）3：10
+方式：腾讯会议视频面试
+会议号：
+#腾讯会议：724778732
+请按照约定时间进入会议室参加面试，若会议室有同学正在面试，则先退出稍等片刻
+联系人：中新赛克HR，15751858006
+收到请回复：姓名+参加
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面hr面，三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,10 +1266,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,6 +1302,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1258,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1276,6 +1350,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1561,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1573,6 +1651,7 @@
     <col min="2" max="2" width="59.21875" customWidth="1"/>
     <col min="3" max="3" width="33.77734375" customWidth="1"/>
     <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="5" max="5" width="113.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,7 +1986,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -2014,7 +2093,7 @@
         <v>8.17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,7 +2902,7 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,7 +2921,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B92" t="s">
         <v>167</v>
@@ -2851,12 +2930,12 @@
         <v>8.24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -2865,12 +2944,12 @@
         <v>8.24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -2879,12 +2958,12 @@
         <v>8.24</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
@@ -2893,12 +2972,12 @@
         <v>8.24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
@@ -2907,12 +2986,12 @@
         <v>8.24</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -2921,12 +3000,12 @@
         <v>8.24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -2935,12 +3014,12 @@
         <v>8.24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -2949,12 +3028,12 @@
         <v>8.24</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
         <v>46</v>
@@ -2963,12 +3042,12 @@
         <v>8.24</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -2977,12 +3056,12 @@
         <v>8.24</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -2991,12 +3070,12 @@
         <v>8.24</v>
       </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -3010,7 +3089,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -3019,12 +3098,12 @@
         <v>8.25</v>
       </c>
       <c r="D104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -3033,12 +3112,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -3047,12 +3126,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -3061,12 +3140,12 @@
         <v>8.25</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -3075,12 +3154,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -3089,26 +3168,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3117,12 +3196,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3131,12 +3210,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3145,12 +3224,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3159,12 +3238,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3173,12 +3252,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3187,12 +3266,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3206,7 +3285,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3215,12 +3294,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3229,12 +3308,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3243,12 +3322,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3257,12 +3336,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3271,12 +3350,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3285,12 +3364,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3299,30 +3378,77 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="8"/>
+      <c r="A140" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" s="10"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -3330,186 +3456,221 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>206</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>273</v>
+      <c r="A149" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>87</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>259</v>
+        <v>111</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>249</v>
+      <c r="A152" t="s">
+        <v>268</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>260</v>
+      <c r="A153" t="s">
+        <v>271</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>279</v>
+        <v>137</v>
+      </c>
+      <c r="B154" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>287</v>
+        <v>75</v>
+      </c>
+      <c r="B156" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>144</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>75</v>
-      </c>
-      <c r="B160" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>62</v>
-      </c>
-      <c r="B161" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C166" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" t="s">
+        <v>265</v>
+      </c>
+      <c r="E167" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C168" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="C169" t="s">
-        <v>248</v>
-      </c>
-      <c r="D169" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="C171" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="D171" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C172" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>228</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>275</v>
+        <v>123</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>210</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>276</v>
+        <v>227</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C174" t="s">
-        <v>167</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3613,8 +3774,10 @@
     <hyperlink ref="D121" r:id="rId93" display="https://www.nowcoder.com/feed/main/detail/99e1e11eb68d49aaaee57ac5f61f1794" xr:uid="{28D37DDF-D27A-4DA0-8BF6-BA553F41456B}"/>
     <hyperlink ref="D123" r:id="rId94" location="/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525" display="https://app.mokahr.com/campus_apply/lusterinc/44882?recommendCode=DSnQR6md#/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525" xr:uid="{3C5C615F-C3C2-4518-BA4A-DC98A6E44033}"/>
     <hyperlink ref="D124" r:id="rId95" location="/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" display="https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" xr:uid="{19195581-2439-4143-8BD5-96EE38082714}"/>
+    <hyperlink ref="D125" r:id="rId96" xr:uid="{9683C75E-585A-4F41-9F14-6960ECA22793}"/>
+    <hyperlink ref="D126" r:id="rId97" xr:uid="{912D9126-AA98-4197-A03C-5751B0073AF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B79BC6-7721-46B5-AD68-1A0A3B3013AD}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1617A640-2734-4A42-928A-9FC87AB17208}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18648" yWindow="1596" windowWidth="9600" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,10 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还没开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帆软</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,22 +1018,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.11后，嵌入式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太初科技，大华股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.2 周五 16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中科创达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,14 +1069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.10 18:30 - 20:30测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(已延期），测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哔哩哔哩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,10 +1077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.7，9.21测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CVTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,10 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.5  19:00 - 20:30，测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.1 - 9.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,10 +1153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为旌科技 牛客在问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1217,34 +1181,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.29 - 9.4 18:00截止！ C++开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3 周六 11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 周日上午10:30thoughtworks面试，下午16:00前必须完成中科创达，下午或者晚上再完成亚控笔试</t>
+    <t>准备二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软开，长沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9.6 周二 15:10</t>
-  </si>
-  <si>
-    <t>准备二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 周二 ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软开，长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【中新赛克校招复试邀请】
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 周日 14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备CEO面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中新赛克校招复试邀请】
 孙志豪同学，您好！
 恭喜你通过我司的一轮技术面试，现邀请你参加我司C开发岗位的复试
 时间：2022-9-6（周二）3：10
@@ -1253,12 +1219,21 @@
 #腾讯会议：724778732
 请按照约定时间进入会议室参加面试，若会议室有同学正在面试，则先退出稍等片刻
 联系人：中新赛克HR，15751858006
-收到请回复：姓名+参加
+收到请回复：姓名+参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非常感谢大家来参加今天的面试，面试结果我们会尽快通知大家，本群将会解散，如果后续小伙伴有任何疑问或需求，请发送邮件到Thoughtworks校招邮件组&lt;campusrecruitingteam@thoughtworks.com&gt;
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二面hr面，三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
+    <t xml:space="preserve">9.7 周三 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科研项目代码细节距离，流程举例，比如说滤波算法的细节，可以做个简短的PPT贴上代码来介绍
+                                                                         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1332,7 +1307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1357,6 +1332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1639,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:B144"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2880,7 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,7 +3109,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -3145,7 +3123,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -3154,12 +3132,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -3168,26 +3146,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" t="s">
         <v>240</v>
-      </c>
-      <c r="B110" t="s">
-        <v>241</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3196,12 +3174,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3210,12 +3188,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3229,7 +3207,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3243,7 +3221,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3252,12 +3230,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3266,12 +3244,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3285,7 +3263,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3294,12 +3272,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3308,12 +3286,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3322,12 +3300,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3336,12 +3314,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3355,7 +3333,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3364,12 +3342,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3378,12 +3356,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
@@ -3392,12 +3370,12 @@
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
@@ -3406,12 +3384,12 @@
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -3420,18 +3398,17 @@
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>291</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B139" s="10"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="A140" s="10"/>
       <c r="B140" s="10"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,236 +3423,186 @@
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>253</v>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>262</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>264</v>
       </c>
       <c r="B150" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>108</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C155" t="s">
+        <v>90</v>
+      </c>
+      <c r="D155" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C156" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>111</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>268</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>271</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>137</v>
-      </c>
-      <c r="B154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>144</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>75</v>
-      </c>
-      <c r="B156" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>62</v>
-      </c>
-      <c r="B157" t="s">
-        <v>267</v>
+      <c r="D157" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>209</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158" t="s">
+        <v>294</v>
+      </c>
+      <c r="E158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>228</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D160" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D161" s="11"/>
+      <c r="E161" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>123</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C165" t="s">
-        <v>90</v>
-      </c>
-      <c r="D165" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C166" t="s">
-        <v>294</v>
-      </c>
-      <c r="D166" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>209</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C167" t="s">
-        <v>167</v>
-      </c>
-      <c r="D167" t="s">
-        <v>265</v>
-      </c>
-      <c r="E167" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C168" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>263</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C169" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>228</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C171" t="s">
-        <v>244</v>
-      </c>
-      <c r="D171" t="s">
-        <v>303</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>112</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>123</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>283</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A140:B144"/>
+    <mergeCell ref="A139:B143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1617A640-2734-4A42-928A-9FC87AB17208}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FC340B-33EB-4BB7-BF88-F48958AEC36E}"/>
   <bookViews>
-    <workbookView xWindow="18648" yWindow="1596" windowWidth="9600" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="293">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,10 +1014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.1 周四 9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.2 周五 16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,10 +1077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.7,9.14 19:00-20:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://careers.cvte.com/zone/resume/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,18 +1117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3 周一以后，注意时间不要重叠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1 - 9.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交通银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1169,14 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.7 周三 15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 周二16:00-16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.6 周二 10:50-11:20，需要提前10分钟签到，准备身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,19 +1157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软开，长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.6 周二 15:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9.4 周日 14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备CEO面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1228,13 +1192,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">9.7 周三 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">科研项目代码细节距离，流程举例，比如说滤波算法的细节，可以做个简短的PPT贴上代码来介绍
                                                                          </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 周四 10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备CEO面试</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1212,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,14 +1244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1307,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1326,15 +1285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1617,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3148,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3207,7 +3162,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3221,7 +3176,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3230,12 +3185,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3244,12 +3199,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3263,7 +3218,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3272,12 +3227,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3286,12 +3241,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3300,12 +3255,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3314,12 +3269,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3333,7 +3288,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3342,12 +3297,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3356,72 +3311,72 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B139" s="10"/>
+      <c r="A139" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -3429,175 +3384,117 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>252</v>
+      <c r="A148" t="s">
+        <v>261</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
         <v>262</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>264</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>265</v>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" t="s">
+        <v>280</v>
+      </c>
+      <c r="D153" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C154" t="s">
+        <v>281</v>
+      </c>
+      <c r="D154" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="C156" t="s">
-        <v>285</v>
-      </c>
-      <c r="D156" t="s">
-        <v>261</v>
+        <v>167</v>
+      </c>
+      <c r="E156" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
-      </c>
-      <c r="D158" t="s">
-        <v>294</v>
-      </c>
-      <c r="E158" t="s">
-        <v>295</v>
+        <v>57</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C159" t="s">
+        <v>90</v>
+      </c>
+      <c r="D159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="C159" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>228</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C160" t="s">
-        <v>243</v>
-      </c>
-      <c r="D160" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D161" s="11"/>
-      <c r="E161" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>123</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>227</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C164" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>276</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FC340B-33EB-4BB7-BF88-F48958AEC36E}"/>
+  <xr:revisionPtr revIDLastSave="572" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C91959C4-FE26-44AA-BE85-E728C9763A97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="294">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,10 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.4 周日 10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交通银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,10 +1158,6 @@
   </si>
   <si>
     <t>9.4 周日 14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,34 +1166,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【中新赛克校招复试邀请】
-孙志豪同学，您好！
-恭喜你通过我司的一轮技术面试，现邀请你参加我司C开发岗位的复试
-时间：2022-9-6（周二）3：10
-方式：腾讯会议视频面试
-会议号：
-#腾讯会议：724778732
-请按照约定时间进入会议室参加面试，若会议室有同学正在面试，则先退出稍等片刻
-联系人：中新赛克HR，15751858006
-收到请回复：姓名+参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">非常感谢大家来参加今天的面试，面试结果我们会尽快通知大家，本群将会解散，如果后续小伙伴有任何疑问或需求，请发送邮件到Thoughtworks校招邮件组&lt;campusrecruitingteam@thoughtworks.com&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">科研项目代码细节距离，流程举例，比如说滤波算法的细节，可以做个简短的PPT贴上代码来介绍
                                                                          </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.8 周四 10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>准备CEO面试</t>
+  </si>
+  <si>
+    <t>三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
+  </si>
+  <si>
+    <t>已完成二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 周四 11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面为综合面，需要公司业务和发展方向有所了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴9月中下旬，海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1266,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1287,6 +1280,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1572,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3315,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
@@ -3325,12 +3324,12 @@
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
@@ -3339,12 +3338,12 @@
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -3353,30 +3352,30 @@
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B139" s="9"/>
+      <c r="A139" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="11"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -3399,7 +3398,7 @@
         <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D153" t="s">
         <v>260</v>
@@ -3407,94 +3406,84 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>287</v>
+      </c>
+      <c r="E154" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C155" t="s">
         <v>167</v>
       </c>
       <c r="D155" t="s">
+        <v>291</v>
+      </c>
+      <c r="E155" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" t="s">
+        <v>243</v>
+      </c>
+      <c r="D156" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" t="s">
         <v>282</v>
       </c>
-      <c r="C156" t="s">
-        <v>167</v>
-      </c>
-      <c r="E156" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>228</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C157" t="s">
-        <v>243</v>
-      </c>
-      <c r="D157" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>123</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C158" t="s">
-        <v>57</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D159" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>289</v>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="572" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C91959C4-FE26-44AA-BE85-E728C9763A97}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87792921-9221-4CDD-8AE5-0652A636C440}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TPLINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,14 +1061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哔哩哔哩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CVTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1109,10 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.7 周三 14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交通银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1141,18 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>superX计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 周二 10:50-11:20，需要提前10分钟签到，准备身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.6 周二 15:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,16 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">科研项目代码细节距离，流程举例，比如说滤波算法的细节，可以做个简短的PPT贴上代码来介绍
-                                                                         </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>准备CEO面试</t>
   </si>
   <si>
@@ -1181,19 +1143,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.8 周四 11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二面为综合面，需要公司业务和发展方向有所了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中兴9月中下旬，海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 周四 14:30,需要提前10分钟签到，准备身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能没有二面，直接hr面+笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 周三 16:25 需要准备身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1280,15 +1250,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1571,22 +1532,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="59.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
-    <col min="5" max="5" width="113.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="5" max="5" width="113.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1653,7 +1614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -1709,7 +1670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1737,7 +1698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +1712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1765,7 +1726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1779,7 +1740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1793,7 +1754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +1782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1835,7 +1796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4399</v>
       </c>
@@ -1849,7 +1810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -1877,7 +1838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1891,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1905,7 +1866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -1916,9 +1877,9 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -1930,7 +1891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
@@ -1944,7 +1905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -1958,7 +1919,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -1972,7 +1933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1986,7 +1947,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -2000,7 +1961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +1975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -2025,10 +1986,10 @@
         <v>8.17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -2042,7 +2003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -2056,7 +2017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2070,7 +2031,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2084,7 +2045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
@@ -2095,7 +2056,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
@@ -2109,7 +2070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -2123,7 +2084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2137,7 +2098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
@@ -2151,7 +2112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -2165,7 +2126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -2179,7 +2140,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -2193,7 +2154,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>104</v>
       </c>
@@ -2207,7 +2168,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>106</v>
       </c>
@@ -2221,7 +2182,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -2235,7 +2196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>111</v>
       </c>
@@ -2249,7 +2210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -2263,7 +2224,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -2277,7 +2238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -2291,7 +2252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -2305,7 +2266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>121</v>
       </c>
@@ -2319,7 +2280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -2333,7 +2294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>125</v>
       </c>
@@ -2347,7 +2308,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -2361,7 +2322,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
@@ -2375,7 +2336,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
@@ -2389,7 +2350,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>135</v>
       </c>
@@ -2403,7 +2364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>137</v>
       </c>
@@ -2417,7 +2378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>139</v>
       </c>
@@ -2431,7 +2392,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>141</v>
       </c>
@@ -2445,7 +2406,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>143</v>
       </c>
@@ -2459,7 +2420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2473,7 +2434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2487,7 +2448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>149</v>
       </c>
@@ -2501,7 +2462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>154</v>
       </c>
@@ -2515,7 +2476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>156</v>
       </c>
@@ -2529,7 +2490,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -2543,7 +2504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>160</v>
       </c>
@@ -2557,7 +2518,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>162</v>
       </c>
@@ -2571,7 +2532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>164</v>
       </c>
@@ -2585,7 +2546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>166</v>
       </c>
@@ -2599,7 +2560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>169</v>
       </c>
@@ -2613,7 +2574,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>171</v>
       </c>
@@ -2627,7 +2588,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>173</v>
       </c>
@@ -2641,7 +2602,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -2655,7 +2616,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>177</v>
       </c>
@@ -2669,7 +2630,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>179</v>
       </c>
@@ -2683,7 +2644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>181</v>
       </c>
@@ -2697,7 +2658,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -2711,7 +2672,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>185</v>
       </c>
@@ -2725,7 +2686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>188</v>
       </c>
@@ -2739,7 +2700,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>190</v>
       </c>
@@ -2753,7 +2714,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>192</v>
       </c>
@@ -2767,7 +2728,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>194</v>
       </c>
@@ -2781,7 +2742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -2795,7 +2756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -2809,7 +2770,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>200</v>
       </c>
@@ -2823,7 +2784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>202</v>
       </c>
@@ -2834,10 +2795,10 @@
         <v>8.23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2851,9 +2812,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
         <v>167</v>
@@ -2862,12 +2823,12 @@
         <v>8.24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -2876,12 +2837,12 @@
         <v>8.24</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -2890,12 +2851,12 @@
         <v>8.24</v>
       </c>
       <c r="D94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
@@ -2904,12 +2865,12 @@
         <v>8.24</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
@@ -2918,12 +2879,12 @@
         <v>8.24</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
@@ -2932,12 +2893,12 @@
         <v>8.24</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="B98" t="s">
         <v>57</v>
@@ -2946,12 +2907,12 @@
         <v>8.24</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="B99" t="s">
         <v>57</v>
@@ -2960,12 +2921,12 @@
         <v>8.24</v>
       </c>
       <c r="D99" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" t="s">
         <v>46</v>
@@ -2974,12 +2935,12 @@
         <v>8.24</v>
       </c>
       <c r="D100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -2988,12 +2949,12 @@
         <v>8.24</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -3002,12 +2963,12 @@
         <v>8.24</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
         <v>57</v>
@@ -3019,9 +2980,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
@@ -3030,12 +2991,12 @@
         <v>8.25</v>
       </c>
       <c r="D104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
         <v>57</v>
@@ -3044,12 +3005,12 @@
         <v>8.25</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
@@ -3058,12 +3019,12 @@
         <v>8.25</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="B107" t="s">
         <v>57</v>
@@ -3072,12 +3033,12 @@
         <v>8.25</v>
       </c>
       <c r="D107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
@@ -3086,12 +3047,12 @@
         <v>8.25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -3100,26 +3061,26 @@
         <v>8.25</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="B110" t="s">
         <v>239</v>
-      </c>
-      <c r="B110" t="s">
-        <v>240</v>
       </c>
       <c r="C110" s="6">
         <v>8.26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s">
         <v>57</v>
@@ -3128,12 +3089,12 @@
         <v>8.26</v>
       </c>
       <c r="D111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3142,12 +3103,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3156,12 +3117,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3170,12 +3131,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3184,12 +3145,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3198,12 +3159,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3215,9 +3176,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3226,12 +3187,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3240,12 +3201,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3254,12 +3215,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3268,12 +3229,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3282,12 +3243,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3296,12 +3257,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3310,12 +3271,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
@@ -3324,12 +3285,12 @@
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
@@ -3338,12 +3299,12 @@
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -3352,144 +3313,94 @@
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" t="s">
+        <v>278</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="C142" t="s">
+        <v>242</v>
+      </c>
+      <c r="D142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" t="s">
+        <v>280</v>
+      </c>
+      <c r="E143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" t="s">
         <v>286</v>
       </c>
-      <c r="B139" s="11"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>261</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C153" t="s">
-        <v>279</v>
-      </c>
-      <c r="D153" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>209</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" t="s">
-        <v>167</v>
-      </c>
-      <c r="D154" t="s">
-        <v>287</v>
-      </c>
-      <c r="E154" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>36</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C155" t="s">
-        <v>167</v>
-      </c>
-      <c r="D155" t="s">
-        <v>291</v>
-      </c>
-      <c r="E155" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>228</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C156" t="s">
-        <v>243</v>
-      </c>
-      <c r="D156" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>222</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C158" t="s">
-        <v>280</v>
-      </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A139:B143"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>

--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87792921-9221-4CDD-8AE5-0652A636C440}"/>
+  <xr:revisionPtr revIDLastSave="735" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF223D-D191-4016-9D7D-40C57FC6EE34}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3324" yWindow="1692" windowWidth="11592" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="316">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,10 +1010,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.2 周五 16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇川</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成一面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CVTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1121,10 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测开/偏向嵌入式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.6 周二 15:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,34 +1124,162 @@
     <t>准备CEO面试</t>
   </si>
   <si>
-    <t>三面ceo面，需要提前准备有关芯原公司业务方面以及自己发展方向的事情</t>
-  </si>
-  <si>
     <t>已完成二面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二面为综合面，需要公司业务和发展方向有所了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴9月中下旬，海康威视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.8 周四 14:30,需要提前10分钟签到，准备身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可能没有二面，直接hr面+笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 周三 16:25 需要准备身份证</t>
+    <t>大华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dahua.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux C开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kwh0jtf778.jobs.feishu.cn/referral/campus/position/7078873624124901662/detail?token=NTsxNjYzMjA4ODkzMjYyOzcwNjU4NjIxMzI1MzM3Mzk1MjI7NzA2NzAzMjczNDI2MjEzNTA1Mw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世纪前沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.byd.com/zpweb/zpweb/workInfoXz.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.boe.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电55所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=10866&amp;rnum=CC000108665&amp;taskId=null&amp;productId=7&amp;channelId=null&amp;scjobs=CC000108665J00101479847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普源精电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moseeker.com/position/index/pid/2467752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bsthr.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.abchina.com/build/index.html#/PositionDetails/:29802175</t>
+  </si>
+  <si>
+    <t>思特威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已意象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.nbcb.com.cn/#/dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>准备一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.21 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.20 18:00- 9.23 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job3.ccb.com/cn/job/apply_job.html?planType=XY&amp;orgId=1007191&amp;planId=2022090511972949&amp;planPost=20220905111009613754&amp;secondOrgId=8ba3bc9956a2c23001576597de2270ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推申请，还需要投官网简历https://www.nowcoder.com/discuss/1052185?type=all&amp;order=recall&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1663657927475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.28 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备一面，工资很低16k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10 10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备一面，好好复习，尤其是C++面经</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1250,6 +1366,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,22 +1651,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="59.25" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
-    <col min="5" max="5" width="113.875" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="5" max="5" width="113.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -1670,7 +1789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +1803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1712,7 +1831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1740,7 +1859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1782,7 +1901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1796,7 +1915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4399</v>
       </c>
@@ -1810,7 +1929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -1824,7 +1943,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -1838,7 +1957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1852,7 +1971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1866,7 +1985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -1877,7 +1996,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>227</v>
       </c>
@@ -1891,7 +2010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +2024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
@@ -1919,7 +2038,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
@@ -1933,7 +2052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1947,7 +2066,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
@@ -1961,7 +2080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -1975,7 +2094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -1989,7 +2108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -2003,7 +2122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -2017,7 +2136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -2031,7 +2150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2045,7 +2164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
@@ -2056,7 +2175,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
@@ -2070,7 +2189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -2084,7 +2203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
@@ -2112,7 +2231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -2126,7 +2245,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -2140,7 +2259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -2154,7 +2273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>104</v>
       </c>
@@ -2168,7 +2287,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>106</v>
       </c>
@@ -2182,7 +2301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -2196,7 +2315,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>111</v>
       </c>
@@ -2210,7 +2329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -2224,7 +2343,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -2238,7 +2357,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -2252,7 +2371,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -2266,7 +2385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>121</v>
       </c>
@@ -2280,7 +2399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -2294,7 +2413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>125</v>
       </c>
@@ -2308,7 +2427,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -2322,7 +2441,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
@@ -2336,7 +2455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>133</v>
       </c>
@@ -2350,7 +2469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>135</v>
       </c>
@@ -2364,7 +2483,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>137</v>
       </c>
@@ -2378,7 +2497,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>139</v>
       </c>
@@ -2392,7 +2511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>141</v>
       </c>
@@ -2406,7 +2525,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>143</v>
       </c>
@@ -2420,7 +2539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2434,7 +2553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2448,7 +2567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>149</v>
       </c>
@@ -2462,7 +2581,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>154</v>
       </c>
@@ -2476,7 +2595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>156</v>
       </c>
@@ -2490,7 +2609,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -2504,7 +2623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>160</v>
       </c>
@@ -2518,7 +2637,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>162</v>
       </c>
@@ -2532,7 +2651,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>164</v>
       </c>
@@ -2546,7 +2665,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>166</v>
       </c>
@@ -2560,7 +2679,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>169</v>
       </c>
@@ -2574,7 +2693,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>171</v>
       </c>
@@ -2588,7 +2707,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>173</v>
       </c>
@@ -2602,7 +2721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -2616,7 +2735,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>177</v>
       </c>
@@ -2630,7 +2749,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>179</v>
       </c>
@@ -2644,7 +2763,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>181</v>
       </c>
@@ -2658,7 +2777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -2672,7 +2791,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>185</v>
       </c>
@@ -2686,7 +2805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>188</v>
       </c>
@@ -2700,7 +2819,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>190</v>
       </c>
@@ -2714,7 +2833,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>192</v>
       </c>
@@ -2728,7 +2847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>194</v>
       </c>
@@ -2742,7 +2861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -2756,7 +2875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -2770,7 +2889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>200</v>
       </c>
@@ -2784,7 +2903,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>202</v>
       </c>
@@ -2798,7 +2917,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -2812,7 +2931,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -2826,7 +2945,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>208</v>
       </c>
@@ -2840,7 +2959,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>210</v>
       </c>
@@ -2854,7 +2973,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>212</v>
       </c>
@@ -2868,7 +2987,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>214</v>
       </c>
@@ -2882,7 +3001,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>216</v>
       </c>
@@ -2896,7 +3015,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>218</v>
       </c>
@@ -2910,7 +3029,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>220</v>
       </c>
@@ -2924,7 +3043,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>221</v>
       </c>
@@ -2938,7 +3057,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>223</v>
       </c>
@@ -2952,7 +3071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>225</v>
       </c>
@@ -2966,7 +3085,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>226</v>
       </c>
@@ -2980,7 +3099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>228</v>
       </c>
@@ -2994,7 +3113,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>229</v>
       </c>
@@ -3008,7 +3127,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>231</v>
       </c>
@@ -3022,7 +3141,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>233</v>
       </c>
@@ -3036,7 +3155,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>235</v>
       </c>
@@ -3050,7 +3169,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>236</v>
       </c>
@@ -3064,7 +3183,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>238</v>
       </c>
@@ -3078,7 +3197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>243</v>
       </c>
@@ -3092,7 +3211,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>245</v>
       </c>
@@ -3106,9 +3225,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3120,9 +3239,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3134,9 +3253,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3145,12 +3264,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3159,12 +3278,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3176,9 +3295,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3187,12 +3306,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3201,12 +3320,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3215,12 +3334,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3229,12 +3348,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3246,9 +3365,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3257,12 +3376,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3271,12 +3390,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
@@ -3285,12 +3404,12 @@
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
@@ -3299,12 +3418,12 @@
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -3313,91 +3432,324 @@
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>164</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C140" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="6">
+        <v>9.15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="6">
+        <v>9.17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="6">
+        <v>9.17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136" s="6">
+        <v>9.19</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="6">
+        <v>9.19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B139" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D139" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" t="s">
         <v>275</v>
       </c>
-      <c r="D140" t="s">
-        <v>259</v>
-      </c>
-      <c r="E140" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="7" t="s">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C155" t="s">
+        <v>242</v>
+      </c>
+      <c r="D155" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C156" t="s">
         <v>167</v>
       </c>
-      <c r="D141" t="s">
-        <v>278</v>
-      </c>
-      <c r="E141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="D156" t="s">
         <v>276</v>
       </c>
-      <c r="C142" t="s">
-        <v>242</v>
-      </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" t="s">
+        <v>90</v>
+      </c>
+      <c r="D157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D143" t="s">
-        <v>280</v>
-      </c>
-      <c r="E143" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>78</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D144" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>282</v>
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3500,8 +3852,17 @@
     <hyperlink ref="D124" r:id="rId95" location="/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" display="https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265" xr:uid="{19195581-2439-4143-8BD5-96EE38082714}"/>
     <hyperlink ref="D125" r:id="rId96" xr:uid="{9683C75E-585A-4F41-9F14-6960ECA22793}"/>
     <hyperlink ref="D126" r:id="rId97" xr:uid="{912D9126-AA98-4197-A03C-5751B0073AF2}"/>
+    <hyperlink ref="D128" r:id="rId98" xr:uid="{A3A744B3-99F5-41D3-9E78-3A715B5ACAA5}"/>
+    <hyperlink ref="D129" r:id="rId99" xr:uid="{FDF0BF6C-CB1B-40F1-A9CB-9739F96F5C75}"/>
+    <hyperlink ref="D132" r:id="rId100" xr:uid="{C29B4CD6-ABB8-4628-97F9-DA18547A9744}"/>
+    <hyperlink ref="D133" r:id="rId101" xr:uid="{8949E2BE-4636-4743-B9CB-F4341979B31F}"/>
+    <hyperlink ref="D134" r:id="rId102" xr:uid="{FD3AB18C-4FEB-4B2A-9DD6-3542A1859513}"/>
+    <hyperlink ref="D135" r:id="rId103" xr:uid="{9A9E4989-8DEC-4DD4-A60D-F3015AE868A6}"/>
+    <hyperlink ref="D136" r:id="rId104" xr:uid="{EED3B60A-DE3A-4462-B4E0-06DA419F29CA}"/>
+    <hyperlink ref="D130" r:id="rId105" location="/dashboard" xr:uid="{1C04B950-5962-4BD1-B899-18F38ABD055A}"/>
+    <hyperlink ref="D138" r:id="rId106" xr:uid="{DA95B4FD-0492-4304-94FE-9F70577BA91A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="735" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF223D-D191-4016-9D7D-40C57FC6EE34}"/>
+  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62538FA8-6311-44C6-ABA8-0575DA8A7036}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="1692" windowWidth="11592" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14496" yWindow="2244" windowWidth="11592" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="337">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -999,239 +999,362 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>同程旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mhr.ly.com/recruit/portal/#/schoolDetail?id=f9b0e66795e048b598aa2a77509d9cd7&amp;type=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/wellintech/72020?recommendCode=DSfRUgAv#/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.webank.com/campus-recruitment/webankhr/18005/#/job/cadb4a30-2d34-439d-80ba-643c3a4e6000/campus_apply/thanks?jobId=cadb4a30-2d34-439d-80ba-643c3a4e6000&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=6004&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSthURHT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=4456579</t>
+  </si>
+  <si>
+    <t>卡方科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀚博半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vastaitech.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.wondershare.cn/campus_apply/wanxingkeji/41591/#/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.cvte.com/zone/resume/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰隆银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金证科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推提交https://www.nowcoder.com/feed/main/detail/99e1e11eb68d49aaaee57ac5f61f1794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/lusterinc/44882?recommendCode=DSnQR6md#/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌云光技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.51job.com/uih2023/#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 周二 15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 周日 14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 周四 14:30,需要提前10分钟签到，准备身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dahua.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux C开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kwh0jtf778.jobs.feishu.cn/referral/campus/position/7078873624124901662/detail?token=NTsxNjYzMjA4ODkzMjYyOzcwNjU4NjIxMzI1MzM3Mzk1MjI7NzA2NzAzMjczNDI2MjEzNTA1Mw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世纪前沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job.byd.com/zpweb/zpweb/workInfoXz.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.boe.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电55所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=10866&amp;rnum=CC000108665&amp;taskId=null&amp;productId=7&amp;channelId=null&amp;scjobs=CC000108665J00101479847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普源精电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moseeker.com/position/index/pid/2467752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bsthr.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.abchina.com/build/index.html#/PositionDetails/:29802175</t>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.nbcb.com.cn/#/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://job3.ccb.com/cn/job/apply_job.html?planType=XY&amp;orgId=1007191&amp;planId=2022090511972949&amp;planPost=20220905111009613754&amp;secondOrgId=8ba3bc9956a2c23001576597de2270ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推申请，还需要投官网简历http://bosc.zhiye.com/personal/deliveryRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://inspur.hcmcloud.cn/recruit#/my_resume?to_apply_id=34872&amp;activity_id=2433&amp;detail_path=activeDelivery&amp;job_category=%E6%8A%80%E6%9C%AF%E7%B1%BB</t>
-  </si>
-  <si>
-    <t>同程旅行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mhr.ly.com/recruit/portal/#/schoolDetail?id=f9b0e66795e048b598aa2a77509d9cd7&amp;type=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/wellintech/72020?recommendCode=DSfRUgAv#/job/122845b6-8dbb-42bc-9cb6-91a13cc4c665/campus_apply/thanks?jobId=122845b6-8dbb-42bc-9cb6-91a13cc4c665&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=28185&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSfRUgAv&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365453123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微众银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.webank.com/campus-recruitment/webankhr/18005/#/job/cadb4a30-2d34-439d-80ba-643c3a4e6000/campus_apply/thanks?jobId=cadb4a30-2d34-439d-80ba-643c3a4e6000&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=6004&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSthURHT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=4456579</t>
-  </si>
-  <si>
-    <t>卡方科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀚博半导体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vastaitech.zhiye.com/campus/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.wondershare.cn/campus_apply/wanxingkeji/41591/#/job/588500e5-29ff-4774-abe4-d460941cdaa3/campus_apply/thanks?jobId=588500e5-29ff-4774-abe4-d460941cdaa3&amp;recommendCode=NTAL893&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=26337&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAL893&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365467837</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.cvte.com/zone/resume/applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰隆银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金证科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推提交https://www.nowcoder.com/feed/main/detail/99e1e11eb68d49aaaee57ac5f61f1794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/lusterinc/44882?recommendCode=DSnQR6md#/job/47c6aaa8-93d1-4df3-be14-95428ccaebf6/campus_apply/thanks?jobId=47c6aaa8-93d1-4df3-be14-95428ccaebf6&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E8%8B%8F%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSnQR6md&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365837525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌云光技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/futu5/1697?recommendCode=DS1FvTkg#/job/be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7/campus_apply/thanks?jobId=be4c9e31-a79a-4d59-ad50-ff4a58bcc7d7&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS1FvTkg&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=365842265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件内推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.bankcomm.com/getpersonalInfo.do?step=99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://campus.51job.com/uih2023/#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 周二 15:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 周日 14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电科南湖院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.h3c.com/h3c/user/delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰发科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://autochips.zhiye.com/form?fromPage=myResume</t>
+  </si>
+  <si>
+    <t>9.27 10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱德万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同学吧投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已意向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之江实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talents.zhejianglab.com/wt/zhejianglab/web/index?brandCode=1#/pd/eyJQb3N0SWQiOjEwMjA0MCwiUmVjcnVpdFR5cGUiOjEsIlJlY3J1aXRUeXBlTmFtZSI6IuagoeWbreaLm+iBmCJ9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技管培生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推https://www.nowcoder.com/discuss/1060160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特大陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=25782&amp;rnum=CC000257822&amp;taskId=null&amp;productId=7&amp;channelId=null&amp;scjobs=CC000257822J00101587224</t>
   </si>
   <si>
     <t>准备CEO面试</t>
-  </si>
-  <si>
-    <t>已完成二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.8 周四 14:30,需要提前10分钟签到，准备身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大华股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dahua.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禾赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux C开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kwh0jtf778.jobs.feishu.cn/referral/campus/position/7078873624124901662/detail?token=NTsxNjYzMjA4ODkzMjYyOzcwNjU4NjIxMzI1MzM3Mzk1MjI7NzA2NzAzMjczNDI2MjEzNTA1Mw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世纪前沿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量化开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比亚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job.byd.com/zpweb/zpweb/workInfoXz.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://campus.boe.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中电55所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=10866&amp;rnum=CC000108665&amp;taskId=null&amp;productId=7&amp;channelId=null&amp;scjobs=CC000108665J00101479847</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普源精电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.moseeker.com/position/index/pid/2467752</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑芝麻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bsthr.zhiye.com/personal/deliveryRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://career.abchina.com/build/index.html#/PositionDetails/:29802175</t>
-  </si>
-  <si>
-    <t>思特威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已意象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhaopin.nbcb.com.cn/#/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英集芯科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞凡计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU60769cec0dcad4510451cb0e/pb/custom.html?parentKey=section_4&amp;pageType=customize_section_4#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 联系天翼云hr，问清楚是否可以转C++开发而非测试开发，说明已经有其他的offer但是很想去天翼云做C++开发//////////福利6w多，
+2. 联系芯原hr，说明科大去年10.20才发三方，已经有两个offer，但非常想去芯原，能否先签两方 
+3. 中薪赛克定薪考虑: 18.5 X 14 = 26 + 800补贴 + 800南京补贴 ，公积金10%, 9点上班，124加班道8.30，大小周，3000安家费，试用期6个月工资不打折。
+4. 国资小新继续投递一些值得投递的国企          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没来得及投递/后悔拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞晟，联影，长鑫存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11 9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用软件开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1239,47 +1362,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.21 15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.20 18:00- 9.23 22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://job3.ccb.com/cn/job/apply_job.html?planType=XY&amp;orgId=1007191&amp;planId=2022090511972949&amp;planPost=20220905111009613754&amp;secondOrgId=8ba3bc9956a2c23001576597de2270ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推申请，还需要投官网简历https://www.nowcoder.com/discuss/1052185?type=all&amp;order=recall&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_all_nctrack&amp;gio_id=820489326E959B2AF5A5CE5BCDF5B43D-1663657927475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.28 18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备一面，工资很低16k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10 10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备一面，好好复习，尤其是C++面经</t>
+    <t>准备二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11 10:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1369,6 +1456,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1651,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3207,13 +3309,13 @@
       <c r="C111" s="6">
         <v>8.26</v>
       </c>
-      <c r="D111" t="s">
-        <v>244</v>
+      <c r="D111" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -3222,12 +3324,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -3241,7 +3343,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -3255,7 +3357,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -3264,12 +3366,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -3278,12 +3380,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
         <v>46</v>
@@ -3297,7 +3399,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -3306,12 +3408,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
         <v>46</v>
@@ -3320,12 +3422,12 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
         <v>57</v>
@@ -3334,12 +3436,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
         <v>57</v>
@@ -3348,12 +3450,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
         <v>57</v>
@@ -3367,7 +3469,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
         <v>46</v>
@@ -3376,12 +3478,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
@@ -3390,12 +3492,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B125" t="s">
         <v>46</v>
@@ -3404,12 +3506,12 @@
         <v>9.1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B126" t="s">
         <v>46</v>
@@ -3418,12 +3520,12 @@
         <v>9.1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -3432,12 +3534,12 @@
         <v>9.1</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
         <v>76</v>
@@ -3446,43 +3548,43 @@
         <v>9.15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C129" s="6">
         <v>9.15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C130" s="6">
         <v>9.15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C131" s="6">
         <v>9.15</v>
@@ -3491,21 +3593,21 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C132" s="6">
         <v>9.15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
         <v>167</v>
@@ -3514,12 +3616,12 @@
         <v>9.15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
         <v>167</v>
@@ -3528,12 +3630,12 @@
         <v>9.17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B135" t="s">
         <v>76</v>
@@ -3542,12 +3644,12 @@
         <v>9.17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
         <v>167</v>
@@ -3556,12 +3658,12 @@
         <v>9.19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B137" t="s">
         <v>167</v>
@@ -3570,189 +3672,344 @@
         <v>9.19</v>
       </c>
       <c r="D137" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C138" s="6">
         <v>9.1999999999999993</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C139" s="6">
         <v>9.1999999999999993</v>
       </c>
       <c r="D139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="7">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="6">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D142" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="6">
+        <v>9.23</v>
+      </c>
+      <c r="D143" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="6">
+        <v>9.27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" s="4">
+        <v>9.27</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B148" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>208</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C184" t="s">
+        <v>167</v>
+      </c>
+      <c r="D184" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C185" t="s">
+        <v>242</v>
+      </c>
+      <c r="D185" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C186" t="s">
+        <v>167</v>
+      </c>
+      <c r="D186" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="9"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="E143" s="9"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="E144" s="9"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>208</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C154" t="s">
-        <v>167</v>
-      </c>
-      <c r="D154" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>227</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C155" t="s">
-        <v>242</v>
-      </c>
-      <c r="D155" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>36</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C156" t="s">
-        <v>167</v>
-      </c>
-      <c r="D156" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="C187" t="s">
         <v>90</v>
       </c>
-      <c r="D157" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C188" t="s">
         <v>57</v>
       </c>
-      <c r="D158" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C159" t="s">
-        <v>57</v>
-      </c>
-      <c r="D159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>300</v>
-      </c>
-      <c r="B168" t="s">
-        <v>306</v>
+      <c r="D188" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" t="s">
+        <v>333</v>
+      </c>
+      <c r="D189" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B194" s="9"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B198" s="14"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A198:B203"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
@@ -3861,8 +4118,13 @@
     <hyperlink ref="D136" r:id="rId104" xr:uid="{EED3B60A-DE3A-4462-B4E0-06DA419F29CA}"/>
     <hyperlink ref="D130" r:id="rId105" location="/dashboard" xr:uid="{1C04B950-5962-4BD1-B899-18F38ABD055A}"/>
     <hyperlink ref="D138" r:id="rId106" xr:uid="{DA95B4FD-0492-4304-94FE-9F70577BA91A}"/>
+    <hyperlink ref="D111" r:id="rId107" location="/my_resume?to_apply_id=34872&amp;activity_id=2433&amp;detail_path=activeDelivery&amp;job_category=%E6%8A%80%E6%9C%AF%E7%B1%BB" xr:uid="{74E30DBE-D58D-403D-98AE-B7CCA172CD5E}"/>
+    <hyperlink ref="D141" r:id="rId108" xr:uid="{388D4225-F8DA-433D-960A-F974F784C959}"/>
+    <hyperlink ref="D144" r:id="rId109" location="/pd/eyJQb3N0SWQiOjEwMjA0MCwiUmVjcnVpdFR5cGUiOjEsIlJlY3J1aXRUeXBlTmFtZSI6IuagoeWbreaLm+iBmCJ9" xr:uid="{2562298B-0C46-485C-A703-08960B9D109D}"/>
+    <hyperlink ref="D145" r:id="rId110" display="https://www.nowcoder.com/discuss/1060160" xr:uid="{BB2C29D5-C459-4D71-B508-E4C679B3F269}"/>
+    <hyperlink ref="D149" r:id="rId111" location="/" xr:uid="{0112AD5F-26A1-4627-A565-1ED52B355136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId112"/>
 </worksheet>
 </file>
--- a/简历/秋招投递.xlsx
+++ b/简历/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/简历/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62538FA8-6311-44C6-ABA8-0575DA8A7036}"/>
+  <xr:revisionPtr revIDLastSave="862" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D81068C8-C3C9-4B67-A8A6-923856D3AF2E}"/>
   <bookViews>
-    <workbookView xWindow="14496" yWindow="2244" windowWidth="11592" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="339">
   <si>
     <t>投递对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,10 +1313,6 @@
   </si>
   <si>
     <t>https://xiaoyuan.zhaopin.com/scrd/delivery/completed?rid=25782&amp;rnum=CC000257822&amp;taskId=null&amp;productId=7&amp;channelId=null&amp;scjobs=CC000257822J00101587224</t>
-  </si>
-  <si>
-    <t>准备CEO面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英集芯科技</t>
@@ -1350,23 +1346,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.11 9:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用软件开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准备一面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.11 10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌云光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统软件设计师，偏向全栈，以后往光学系统的架构师方向发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16 10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待HR沟通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1462,6 +1470,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1753,17 +1764,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.77734375" customWidth="1"/>
     <col min="2" max="2" width="59.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="79.5546875" customWidth="1"/>
     <col min="4" max="4" width="47.21875" customWidth="1"/>
     <col min="5" max="5" width="113.88671875" customWidth="1"/>
   </cols>
@@ -3824,7 +3835,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B148" t="s">
         <v>76</v>
@@ -3833,7 +3844,7 @@
         <v>10.7</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E148" s="9"/>
     </row>
@@ -3842,13 +3853,13 @@
         <v>42</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C149" s="4">
         <v>10.7</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E149" s="9"/>
     </row>
@@ -3891,7 +3902,7 @@
         <v>167</v>
       </c>
       <c r="D184" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,13 +3952,13 @@
         <v>87</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C188" t="s">
         <v>57</v>
       </c>
       <c r="D188" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3966,27 @@
         <v>303</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C189" t="s">
+        <v>331</v>
+      </c>
+      <c r="D189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>334</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C190" t="s">
+        <v>336</v>
+      </c>
+      <c r="D190" t="s">
         <v>333</v>
-      </c>
-      <c r="D189" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,45 +3995,45 @@
       </c>
       <c r="B194" s="9"/>
     </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B197" s="15"/>
+    </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="15"/>
+      <c r="B199" s="15"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>329</v>
       </c>
-      <c r="B198" s="14"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>331</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A198:B203"/>
+    <mergeCell ref="A197:B202"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
